--- a/data/hotels_by_city/Houston/Houston_shard_127.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_127.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="772">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56707-d106339-Reviews-Comfort_Suites_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Comfort-Suites.h42965.Hotel-Information?chkin=7%2F9%2F2018&amp;chkout=7%2F10%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1530384181182&amp;cancellable=false&amp;regionId=178265&amp;vip=false&amp;c=bf8afd46-1ada-45aa-8b01-572d395fe5af&amp;mctc=9&amp;exp_dp=75.6&amp;exp_ts=1530384181767&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,2218 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r586914058-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>56707</t>
+  </si>
+  <si>
+    <t>106339</t>
+  </si>
+  <si>
+    <t>586914058</t>
+  </si>
+  <si>
+    <t>06/12/2018</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We used this place for part of a wedding party. The service &amp; staff were excellent. Rooms were clean &amp; towels were replaced every morning.  The breakfast was pretty good, had some options of hot or cold. The area was great with many restaurants around. </t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r581965915-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>581965915</t>
+  </si>
+  <si>
+    <t>05/22/2018</t>
+  </si>
+  <si>
+    <t>NICE CONVENIENT STAY</t>
+  </si>
+  <si>
+    <t>Overall a nice convenient place to stay in the Stafford area.  Great value for the price.  Positioned right on the feeder to Hwy 59/69, so it was an easy in and out each day.  Many restaurants in the area but only Applebee's (which I DO NOT RECOMMEND) &amp; the bar on the waterway stay open past 10pm during the week.  And DO NOT eat at the America Buffet in the parking lot...ewwww!  The hotel staff was friendly and helpful other than my door keys were deactivated each day after cleaning and when I would go to the front desk they kept accusing me of putting it next to my phone instead of not having me down for checkout each day.  Take snacks with you if you want munchies, the snack bar is crazy expensive and a lot of the snack are very ethnic...  The room was clean and very spacious, with lots of towels but the A/C unit didn't take the humidity out of the room, so you and your things always felt damp.  The parking was wonderful and I always had a spot near the front door, great for traveling alone and bringing your items in and out often.  Again, overall great stay and I would choose it again and again when in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Julie T, Director of Sales at Comfort Suites Stafford, responded to this reviewResponded May 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2018</t>
+  </si>
+  <si>
+    <t>Overall a nice convenient place to stay in the Stafford area.  Great value for the price.  Positioned right on the feeder to Hwy 59/69, so it was an easy in and out each day.  Many restaurants in the area but only Applebee's (which I DO NOT RECOMMEND) &amp; the bar on the waterway stay open past 10pm during the week.  And DO NOT eat at the America Buffet in the parking lot...ewwww!  The hotel staff was friendly and helpful other than my door keys were deactivated each day after cleaning and when I would go to the front desk they kept accusing me of putting it next to my phone instead of not having me down for checkout each day.  Take snacks with you if you want munchies, the snack bar is crazy expensive and a lot of the snack are very ethnic...  The room was clean and very spacious, with lots of towels but the A/C unit didn't take the humidity out of the room, so you and your things always felt damp.  The parking was wonderful and I always had a spot near the front door, great for traveling alone and bringing your items in and out often.  Again, overall great stay and I would choose it again and again when in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r576988171-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>576988171</t>
+  </si>
+  <si>
+    <t>04/30/2018</t>
+  </si>
+  <si>
+    <t>Mrs.</t>
+  </si>
+  <si>
+    <t>I knew I would have to go to a hotel , due to Hurricane Harvey damage for the 2nd time . I wanted to check out the hotels in Stafford /Sugar Land area . While in the area one evening ( I live 1 1/2 hr away ) , I wanted to check out the prices of hotels in Stafford / Sugar Land . My parrot “son” would have to be boarded at his Vet in Sugar Land ..... so the hotels were on the other side of the freeway and I ran over a curb and when I got to Comfort Suites-Stafford , my tire was flat ( rim bent ) . I went in anyway for their price and the young lady ( Jennifer ) at the front desk eased my Anxiety &amp; stress , when she told me she could change my tire to the donut one !! She did just that &amp; there was no checking any other hotel when she did that for me ! I stayed for 2 weeks and the entire staff welcomed me as part of their family . The GM , Julie T. made sure my stay was comfortable &amp; taken care of . It was time for me to go home &amp; the workers knocked my electricity so after 3 weeks home , my insur told me to go back in a Hotel as I needed my CPAP mask to...I knew I would have to go to a hotel , due to Hurricane Harvey damage for the 2nd time . I wanted to check out the hotels in Stafford /Sugar Land area . While in the area one evening ( I live 1 1/2 hr away ) , I wanted to check out the prices of hotels in Stafford / Sugar Land . My parrot “son” would have to be boarded at his Vet in Sugar Land ..... so the hotels were on the other side of the freeway and I ran over a curb and when I got to Comfort Suites-Stafford , my tire was flat ( rim bent ) . I went in anyway for their price and the young lady ( Jennifer ) at the front desk eased my Anxiety &amp; stress , when she told me she could change my tire to the donut one !! She did just that &amp; there was no checking any other hotel when she did that for me ! I stayed for 2 weeks and the entire staff welcomed me as part of their family . The GM , Julie T. made sure my stay was comfortable &amp; taken care of . It was time for me to go home &amp; the workers knocked my electricity so after 3 weeks home , my insur told me to go back in a Hotel as I needed my CPAP mask to sleep &amp; needed electricity. No hesitation to ask for Comfort Suites Stafford again . They also have a hot/cold very good breakfast. Not even Marriott Courtyard on Galveston Seawall had that ! ( they were the ONLY hotel w/ a room right after Hurricane Harvey . ) I have to leave tomorrow morning after 3 weeks here , but wanted others looking for a great hotel in Stafford , Tx -(near Sugar Land) , to come to this clean  and comfortable hotel . Being my husband passed and having PTSD , they truly made me feel like one of their Comfort Suites Family. I will miss each and everyone that works here , but time for me to go home .MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I knew I would have to go to a hotel , due to Hurricane Harvey damage for the 2nd time . I wanted to check out the hotels in Stafford /Sugar Land area . While in the area one evening ( I live 1 1/2 hr away ) , I wanted to check out the prices of hotels in Stafford / Sugar Land . My parrot “son” would have to be boarded at his Vet in Sugar Land ..... so the hotels were on the other side of the freeway and I ran over a curb and when I got to Comfort Suites-Stafford , my tire was flat ( rim bent ) . I went in anyway for their price and the young lady ( Jennifer ) at the front desk eased my Anxiety &amp; stress , when she told me she could change my tire to the donut one !! She did just that &amp; there was no checking any other hotel when she did that for me ! I stayed for 2 weeks and the entire staff welcomed me as part of their family . The GM , Julie T. made sure my stay was comfortable &amp; taken care of . It was time for me to go home &amp; the workers knocked my electricity so after 3 weeks home , my insur told me to go back in a Hotel as I needed my CPAP mask to...I knew I would have to go to a hotel , due to Hurricane Harvey damage for the 2nd time . I wanted to check out the hotels in Stafford /Sugar Land area . While in the area one evening ( I live 1 1/2 hr away ) , I wanted to check out the prices of hotels in Stafford / Sugar Land . My parrot “son” would have to be boarded at his Vet in Sugar Land ..... so the hotels were on the other side of the freeway and I ran over a curb and when I got to Comfort Suites-Stafford , my tire was flat ( rim bent ) . I went in anyway for their price and the young lady ( Jennifer ) at the front desk eased my Anxiety &amp; stress , when she told me she could change my tire to the donut one !! She did just that &amp; there was no checking any other hotel when she did that for me ! I stayed for 2 weeks and the entire staff welcomed me as part of their family . The GM , Julie T. made sure my stay was comfortable &amp; taken care of . It was time for me to go home &amp; the workers knocked my electricity so after 3 weeks home , my insur told me to go back in a Hotel as I needed my CPAP mask to sleep &amp; needed electricity. No hesitation to ask for Comfort Suites Stafford again . They also have a hot/cold very good breakfast. Not even Marriott Courtyard on Galveston Seawall had that ! ( they were the ONLY hotel w/ a room right after Hurricane Harvey . ) I have to leave tomorrow morning after 3 weeks here , but wanted others looking for a great hotel in Stafford , Tx -(near Sugar Land) , to come to this clean  and comfortable hotel . Being my husband passed and having PTSD , they truly made me feel like one of their Comfort Suites Family. I will miss each and everyone that works here , but time for me to go home .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r564975774-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>564975774</t>
+  </si>
+  <si>
+    <t>03/06/2018</t>
+  </si>
+  <si>
+    <t>My stay</t>
+  </si>
+  <si>
+    <t>I was here for my sisters wedding and the staff were amazing, they made me feel at home. The breakfast was great. Would definitely recommend it to a friend. Lots of restaurants close by within walking distance. Loved it!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>I was here for my sisters wedding and the staff were amazing, they made me feel at home. The breakfast was great. Would definitely recommend it to a friend. Lots of restaurants close by within walking distance. Loved it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r546039282-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>546039282</t>
+  </si>
+  <si>
+    <t>12/08/2017</t>
+  </si>
+  <si>
+    <t>Excellent staff and very well maintained hotel</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel several weeks over the last four months.  The facility is well maintained and the breakfast is abundant each morning.   The hotel is a very comfortable place to lay your head.  The location is superb and there are several restaurants in the area.  I enjoyed interacting with the staff.  Especially Melanie who always greets you with a smile and takes great care of the customers.  I will definitely return to this hotel on future trips to the area.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r536429343-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>536429343</t>
+  </si>
+  <si>
+    <t>10/27/2017</t>
+  </si>
+  <si>
+    <t>Rude front desk staff, dirty, and not safe.</t>
+  </si>
+  <si>
+    <t>Rude front desk staff, dirty, and not safe. I've been staying here for the past year on my work trips, but this last time not only did they give me a room that smelled like a combination of mothballs (chemicals) and burnt, but the front desk staff (Miss Mae and another younger woman) were extremely rude when I requested to be moved to another room. They told me they didn't have any rooms available so when I spoke to the manager, he, all of a sudden had a room (with a leaking refrigerator by the way). I didn't appreciate the dishonesty or the rudeness and will no longer be staying at the Comfort Suites in Stafford, TX. They refused to give me a refund when I said I was not staying there. I also found a long piece of hair in one of my hand towels AND the door was unlocked when I first walked in. I am completely appalled by the service, cleanliness, and safety of this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Rude front desk staff, dirty, and not safe. I've been staying here for the past year on my work trips, but this last time not only did they give me a room that smelled like a combination of mothballs (chemicals) and burnt, but the front desk staff (Miss Mae and another younger woman) were extremely rude when I requested to be moved to another room. They told me they didn't have any rooms available so when I spoke to the manager, he, all of a sudden had a room (with a leaking refrigerator by the way). I didn't appreciate the dishonesty or the rudeness and will no longer be staying at the Comfort Suites in Stafford, TX. They refused to give me a refund when I said I was not staying there. I also found a long piece of hair in one of my hand towels AND the door was unlocked when I first walked in. I am completely appalled by the service, cleanliness, and safety of this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r529107398-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>529107398</t>
+  </si>
+  <si>
+    <t>10/02/2017</t>
+  </si>
+  <si>
+    <t>Hotel Life</t>
+  </si>
+  <si>
+    <t>The service that my family received was excellent.  The staff was very concerned, courteous and accommodating.  My suite was very clean and fresh.  Everyone should experience at least one night at this hotel.  The location and amenities are also great!  What I liked best was the suite and the service!Bridget</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r519658985-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>519658985</t>
+  </si>
+  <si>
+    <t>08/30/2017</t>
+  </si>
+  <si>
+    <t>Hurricane Harvey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We were at the Comfort Suites during the Harvey event. I have never in my life seen the staff work so hard to meet the demands of the guests. I personally saw the owners work for 36 hours straight when their workers were unable to come to work due to the floods. This is a family environment that you would be proud of to have in the community. Keep up the great work. </t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r510799568-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>510799568</t>
+  </si>
+  <si>
+    <t>08/09/2017</t>
+  </si>
+  <si>
+    <t>Home Away from Home</t>
+  </si>
+  <si>
+    <t>The minute we walked in we felt at ease, a very peaceful, calm atmosphere. We are in Houston for husband's 7-week radiation treatments &amp; a comfy, clean place is what we needed. This hotel provides that &amp; beyond. Julie at the front desk took us to a room at our request to see if it was what we were looking for. The room was a very clean suite with a nice decor. It had everything we were looking for. What made this hotel stand out was the friendly staff, especially Julie &amp; May at the front desk. This place has the feel of home...quiet, clean, &amp; peaceful. Their breakfasts are delicious. We loved the first week so much, we decided to register for all the remaining weeks we are going to be here. You can't beat the price for such great quality. The location was very important as well,  since it was close to the MDAnderson radiology building located in Sugarland. We feel very grateful to have found this home away from home. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>The minute we walked in we felt at ease, a very peaceful, calm atmosphere. We are in Houston for husband's 7-week radiation treatments &amp; a comfy, clean place is what we needed. This hotel provides that &amp; beyond. Julie at the front desk took us to a room at our request to see if it was what we were looking for. The room was a very clean suite with a nice decor. It had everything we were looking for. What made this hotel stand out was the friendly staff, especially Julie &amp; May at the front desk. This place has the feel of home...quiet, clean, &amp; peaceful. Their breakfasts are delicious. We loved the first week so much, we decided to register for all the remaining weeks we are going to be here. You can't beat the price for such great quality. The location was very important as well,  since it was close to the MDAnderson radiology building located in Sugarland. We feel very grateful to have found this home away from home. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r490237778-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>490237778</t>
+  </si>
+  <si>
+    <t>06/03/2017</t>
+  </si>
+  <si>
+    <t>Plesently surprized.</t>
+  </si>
+  <si>
+    <t>Negotiating Houston's roads IS A CHALANGE for a country boy but finding this hotel was fairly easy.  Quiet room in a bustling city with noisy highways within a rock's throw.  I was surprised by the room's size and lay out, all exceptional and quite workable for someone on a business trip.  All the needed electrical outs for computers and phones in a working desk area along with a couch and coffee table.  The bed was PERFECT as was the pillows and cleanliness of the room and bathroom area. I would stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Julie T, Director of Sales at Comfort Suites Stafford, responded to this reviewResponded June 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2017</t>
+  </si>
+  <si>
+    <t>Negotiating Houston's roads IS A CHALANGE for a country boy but finding this hotel was fairly easy.  Quiet room in a bustling city with noisy highways within a rock's throw.  I was surprised by the room's size and lay out, all exceptional and quite workable for someone on a business trip.  All the needed electrical outs for computers and phones in a working desk area along with a couch and coffee table.  The bed was PERFECT as was the pillows and cleanliness of the room and bathroom area. I would stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r487018821-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>487018821</t>
+  </si>
+  <si>
+    <t>05/23/2017</t>
+  </si>
+  <si>
+    <t>The first two nights went well.</t>
+  </si>
+  <si>
+    <t>We stayed for three nights for a local graduation. The room was clean but you could tell maintenance was not a high priority. The room had paint drips on the wall in the bathroom. The collars around pipes by the wall where pulled away. The ceiling had a poor patch drop from a previous leak. Then the third night comes along. The Houston area received a decent amount of rain fall that night. I woke up at 6 to the sound of water drops and wet feet. The PREVIOUS LEAK had started leaking again. The floor and lower part of the bed was soaked. When i brought this to the attention of the front staff they offered to move us rooms but we had check out in a few hours and declined. After asking if they planned to do anything with the bill they reluctantly offered to refund one of the nights stays. In the end they did make the situation right but it was still very unpleasant. The free breakfast was about on average. Overall it was ok but would stay at another hotel next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Julie T, Director of Sales at Comfort Suites Stafford, responded to this reviewResponded June 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2017</t>
+  </si>
+  <si>
+    <t>We stayed for three nights for a local graduation. The room was clean but you could tell maintenance was not a high priority. The room had paint drips on the wall in the bathroom. The collars around pipes by the wall where pulled away. The ceiling had a poor patch drop from a previous leak. Then the third night comes along. The Houston area received a decent amount of rain fall that night. I woke up at 6 to the sound of water drops and wet feet. The PREVIOUS LEAK had started leaking again. The floor and lower part of the bed was soaked. When i brought this to the attention of the front staff they offered to move us rooms but we had check out in a few hours and declined. After asking if they planned to do anything with the bill they reluctantly offered to refund one of the nights stays. In the end they did make the situation right but it was still very unpleasant. The free breakfast was about on average. Overall it was ok but would stay at another hotel next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r484777763-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>484777763</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>Wonderful coustomer service</t>
+  </si>
+  <si>
+    <t>Hello ,I am from India,came on a business trip with my friend and stayed up for two weeks,and on my checking out three days back,I left back 1100usd in the safe and realised very late and informed the front desk and on my return it was a really nice and honest of all the staffs to help me open the safe on my arrival and the cash was handed over to me.We wish the team a great success and good luck Service like this I have not experienced in my age of 56 anywhere else. Keep up the great work. MoreShow less</t>
+  </si>
+  <si>
+    <t>Hello ,I am from India,came on a business trip with my friend and stayed up for two weeks,and on my checking out three days back,I left back 1100usd in the safe and realised very late and informed the front desk and on my return it was a really nice and honest of all the staffs to help me open the safe on my arrival and the cash was handed over to me.We wish the team a great success and good luck Service like this I have not experienced in my age of 56 anywhere else. Keep up the great work. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r467091843-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>467091843</t>
+  </si>
+  <si>
+    <t>03/13/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great night stay! </t>
+  </si>
+  <si>
+    <t>Had a one night stay in a 2 double bed room with my wife and a friend on a visit to Houston for the rodeo. Very nice room, very updated feel, and the staff were extremely pleasant. The front desk even called the room shortly after check in to ensure the room was up to our standards. Very pleased on the short stay we had.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r467087359-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>467087359</t>
+  </si>
+  <si>
+    <t>Perfect updated comfy!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I got a room with two double beds. Me my husband and his friend loved it! We where in town for the rodeo and they where VERY welcoming and polite. Room was extremely clean and smelled nice. Once we settled in the front desk man (Sid) called up to our room to be sure everything was good with the room and he asked if there was anything he could do to make our stay better. The breakfast was delicious! Only about a 12 minute drive from the Texans field in Houston. Overall just seriously blown away about the service and quality for the price!  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r465873939-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>465873939</t>
+  </si>
+  <si>
+    <t>03/09/2017</t>
+  </si>
+  <si>
+    <t>One night stay</t>
+  </si>
+  <si>
+    <t>I had booked a room for this hotel earlier on in the day and checked in later that same night. There was a staff named Melanie who was very helpful. She checked in for us. We got into our room n settled in and she even took the liberty to call us to see if everything was alright. Great customer service. Our room was on the floor level. We were located mid down the hall from the lobby. Considering how we were so close to the lobby, we were concern that outside might be too loud but we didn't hear a peep. The room was very nice. Sadly we walked in and the room was very hot and humid bc the ac was not on. My only concern was that we found a cup with coffee in our restroom when we got there. It made us question if the room was throughly cleaned, especially the restroom. Aside that the stay was nice. Good location too.MoreShow less</t>
+  </si>
+  <si>
+    <t>I had booked a room for this hotel earlier on in the day and checked in later that same night. There was a staff named Melanie who was very helpful. She checked in for us. We got into our room n settled in and she even took the liberty to call us to see if everything was alright. Great customer service. Our room was on the floor level. We were located mid down the hall from the lobby. Considering how we were so close to the lobby, we were concern that outside might be too loud but we didn't hear a peep. The room was very nice. Sadly we walked in and the room was very hot and humid bc the ac was not on. My only concern was that we found a cup with coffee in our restroom when we got there. It made us question if the room was throughly cleaned, especially the restroom. Aside that the stay was nice. Good location too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r450245951-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>450245951</t>
+  </si>
+  <si>
+    <t>01/07/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicer Comfort Suites with lots of customer service </t>
+  </si>
+  <si>
+    <t>Stayed at the comfort suites Stafford for three nights this January for a wedding that we were attending. Our experience was very pleasant, customer service was beyond expectations. Rooms were comfortable, bathrooms were clean and breakfast was also nice.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r449978536-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>449978536</t>
+  </si>
+  <si>
+    <t>01/06/2017</t>
+  </si>
+  <si>
+    <t>Wedding Party at the C Suites Stafford TX</t>
+  </si>
+  <si>
+    <t>Superior customer service. Staff is very accommodating. Would recommend this one to all. I came from Dallas to attend the wedding of my cousin booked a room here to stay here for three days. Breakfast was always full and enough variety.MoreShow less</t>
+  </si>
+  <si>
+    <t>julietrudeau, Director of Sales at Comfort Suites Stafford, responded to this reviewResponded January 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2017</t>
+  </si>
+  <si>
+    <t>Superior customer service. Staff is very accommodating. Would recommend this one to all. I came from Dallas to attend the wedding of my cousin booked a room here to stay here for three days. Breakfast was always full and enough variety.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r449977376-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>449977376</t>
+  </si>
+  <si>
+    <t>Visiting from Africa Johannesburg</t>
+  </si>
+  <si>
+    <t>Visiting the USA for a wedding here in Sugar land. stayed at this comfort suites had an exceptional experience, staff is very accommodating. Always greeting us with a smile. I personally recommend this to anyone was it in this part of the world won't regret for sure.MoreShow less</t>
+  </si>
+  <si>
+    <t>Visiting the USA for a wedding here in Sugar land. stayed at this comfort suites had an exceptional experience, staff is very accommodating. Always greeting us with a smile. I personally recommend this to anyone was it in this part of the world won't regret for sure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r445110505-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>445110505</t>
+  </si>
+  <si>
+    <t>12/18/2016</t>
+  </si>
+  <si>
+    <t>Nice place to stay</t>
+  </si>
+  <si>
+    <t>No doubt a neat and clean place to stay in.A great location.Breakfast ok with a lot of choices.Nice and friendly staff.Special thanks to Mr. Kareem for his special assistance.No doubt a beautiful place in Houston.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r424739488-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>424739488</t>
+  </si>
+  <si>
+    <t>10/03/2016</t>
+  </si>
+  <si>
+    <t>Visited for Baby Shower</t>
+  </si>
+  <si>
+    <t>I visited Comfort Suited to attend a baby shower of my relative and I had a room there as well. I love the event hall where the event was organized and so as our room. They also had free breakfast for all the guest and on top of it, you can order them to make fresh egg for you. Besides, the staff was very friendly and helpful. My husband and I are planning to book the hall for our upcoming event as well. Overall I will give it a 5 star for all the amazing experience I had. Looking forward to visit again. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>julietrudeau, Director of Sales at Comfort Suites Stafford, responded to this reviewResponded October 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 20, 2016</t>
+  </si>
+  <si>
+    <t>I visited Comfort Suited to attend a baby shower of my relative and I had a room there as well. I love the event hall where the event was organized and so as our room. They also had free breakfast for all the guest and on top of it, you can order them to make fresh egg for you. Besides, the staff was very friendly and helpful. My husband and I are planning to book the hall for our upcoming event as well. Overall I will give it a 5 star for all the amazing experience I had. Looking forward to visit again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r417647831-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>417647831</t>
+  </si>
+  <si>
+    <t>09/12/2016</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>Great place to stay! Clean, orderly, great location, quiet, and very accommodating. The staff, overall, was outstanding with the exception of Julie, a long term management employee, and Ron, another long term employee. These two are quite arrogant and complacent.  There is no place for attitudes such as exhibited by these two individuals in the hospitality industry.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r383019251-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>383019251</t>
+  </si>
+  <si>
+    <t>06/15/2016</t>
+  </si>
+  <si>
+    <t>GREAT PLACE TO STAY</t>
+  </si>
+  <si>
+    <t>I spent 9 days at this property in March 2016 and, as an Australian traveler, have just returned to my 'USA base' after another 10 days at this property in June 2016.  I was warmly welcomed back by the Manager and many other staff who remembered me from my previous sojourn there. On BOTH occasions the service was exceptional through ALL levels, from Management/Mr. Rahim Ali, through  Reception, Maintenance, House-keeping, Breakfast Room etc., and everyone that I met around the property, whether directly involved in Customer Service or not. Staff were courteous, friendly, helpful, professional and efficient at all times, and it was my observation that everyone works exceptionally well as a cohesive and well-functioning team - and it shows! The overall presentation of the hotel was excellent - clean and well maintained lawns, gardens, car park, pool area etc.). On both occasions my King Suites were spacious, clean and very comfortable, including the lovely bed, linen and choice of several very comfortablel pillows. The hotel was well priced and conveniently located, within easy walking distance of several restaurants. The Shopping Centre directly across, on the Southwest Highway, could be easily reached by private car or taxi - but not on foot as it was not possible to walk across the very busy, multiple lane highway. Overall, I had two GREAT experiences at the Comfort Suites, Stafford, felt very much at home (in my 'home away from home'), and will...I spent 9 days at this property in March 2016 and, as an Australian traveler, have just returned to my 'USA base' after another 10 days at this property in June 2016.  I was warmly welcomed back by the Manager and many other staff who remembered me from my previous sojourn there. On BOTH occasions the service was exceptional through ALL levels, from Management/Mr. Rahim Ali, through  Reception, Maintenance, House-keeping, Breakfast Room etc., and everyone that I met around the property, whether directly involved in Customer Service or not. Staff were courteous, friendly, helpful, professional and efficient at all times, and it was my observation that everyone works exceptionally well as a cohesive and well-functioning team - and it shows! The overall presentation of the hotel was excellent - clean and well maintained lawns, gardens, car park, pool area etc.). On both occasions my King Suites were spacious, clean and very comfortable, including the lovely bed, linen and choice of several very comfortablel pillows. The hotel was well priced and conveniently located, within easy walking distance of several restaurants. The Shopping Centre directly across, on the Southwest Highway, could be easily reached by private car or taxi - but not on foot as it was not possible to walk across the very busy, multiple lane highway. Overall, I had two GREAT experiences at the Comfort Suites, Stafford, felt very much at home (in my 'home away from home'), and will definitely stay here again if I need a hotel in Houston.  I would rate it 5/5 - and with no hesitation whatever - and would also give it the highest recommendation to other travelers. I would like, once again, to commend and thank  ALL staff, from the very top downwards, for the exceptional job they do and the great service I received at all times. (Perhaps it is also worth mentioning that I started young and have been travelling the world extensively for 4 DECADES, have been in the USA on many previous occasions, and have stayed in all manner of hotels and accommodation around the world - so have a great basis for comparison!). Thank you for the opportunity to write this well-earned and well-deserved Review, even though it is just one among many). Wendy Meynert (Western Australia)MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>julietrudeau, Director of Sales at Comfort Suites Stafford, responded to this reviewResponded June 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2016</t>
+  </si>
+  <si>
+    <t>I spent 9 days at this property in March 2016 and, as an Australian traveler, have just returned to my 'USA base' after another 10 days at this property in June 2016.  I was warmly welcomed back by the Manager and many other staff who remembered me from my previous sojourn there. On BOTH occasions the service was exceptional through ALL levels, from Management/Mr. Rahim Ali, through  Reception, Maintenance, House-keeping, Breakfast Room etc., and everyone that I met around the property, whether directly involved in Customer Service or not. Staff were courteous, friendly, helpful, professional and efficient at all times, and it was my observation that everyone works exceptionally well as a cohesive and well-functioning team - and it shows! The overall presentation of the hotel was excellent - clean and well maintained lawns, gardens, car park, pool area etc.). On both occasions my King Suites were spacious, clean and very comfortable, including the lovely bed, linen and choice of several very comfortablel pillows. The hotel was well priced and conveniently located, within easy walking distance of several restaurants. The Shopping Centre directly across, on the Southwest Highway, could be easily reached by private car or taxi - but not on foot as it was not possible to walk across the very busy, multiple lane highway. Overall, I had two GREAT experiences at the Comfort Suites, Stafford, felt very much at home (in my 'home away from home'), and will...I spent 9 days at this property in March 2016 and, as an Australian traveler, have just returned to my 'USA base' after another 10 days at this property in June 2016.  I was warmly welcomed back by the Manager and many other staff who remembered me from my previous sojourn there. On BOTH occasions the service was exceptional through ALL levels, from Management/Mr. Rahim Ali, through  Reception, Maintenance, House-keeping, Breakfast Room etc., and everyone that I met around the property, whether directly involved in Customer Service or not. Staff were courteous, friendly, helpful, professional and efficient at all times, and it was my observation that everyone works exceptionally well as a cohesive and well-functioning team - and it shows! The overall presentation of the hotel was excellent - clean and well maintained lawns, gardens, car park, pool area etc.). On both occasions my King Suites were spacious, clean and very comfortable, including the lovely bed, linen and choice of several very comfortablel pillows. The hotel was well priced and conveniently located, within easy walking distance of several restaurants. The Shopping Centre directly across, on the Southwest Highway, could be easily reached by private car or taxi - but not on foot as it was not possible to walk across the very busy, multiple lane highway. Overall, I had two GREAT experiences at the Comfort Suites, Stafford, felt very much at home (in my 'home away from home'), and will definitely stay here again if I need a hotel in Houston.  I would rate it 5/5 - and with no hesitation whatever - and would also give it the highest recommendation to other travelers. I would like, once again, to commend and thank  ALL staff, from the very top downwards, for the exceptional job they do and the great service I received at all times. (Perhaps it is also worth mentioning that I started young and have been travelling the world extensively for 4 DECADES, have been in the USA on many previous occasions, and have stayed in all manner of hotels and accommodation around the world - so have a great basis for comparison!). Thank you for the opportunity to write this well-earned and well-deserved Review, even though it is just one among many). Wendy Meynert (Western Australia)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r382919561-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>382919561</t>
+  </si>
+  <si>
+    <t>EXCELLENT HOTEL, SERVICE, VALUE!</t>
+  </si>
+  <si>
+    <t>First time at the comfort suites, this hotel surpassed my expectations. Excellent breakfast options, very clean, comfortable beds, lots of TV channel options and to top it off, very nice staff. The gentleman at the front desk greeted us with a huge smile and checked us in within seconds. Will surely come to this hotel next time</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r380860553-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>380860553</t>
+  </si>
+  <si>
+    <t>06/08/2016</t>
+  </si>
+  <si>
+    <t>Hotel Staff went above and beyond to accomodate us!!</t>
+  </si>
+  <si>
+    <t>This is a great hotel... efficiently run and very clean- they get it! The hotel staff went above and beyond to help us with a work problem on a deadline! Thanks to them we were able to complete the job with great success!MoreShow less</t>
+  </si>
+  <si>
+    <t>julietrudeau, Director of Sales at Comfort Suites Stafford, responded to this reviewResponded June 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2016</t>
+  </si>
+  <si>
+    <t>This is a great hotel... efficiently run and very clean- they get it! The hotel staff went above and beyond to help us with a work problem on a deadline! Thanks to them we were able to complete the job with great success!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r376284291-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>376284291</t>
+  </si>
+  <si>
+    <t>05/24/2016</t>
+  </si>
+  <si>
+    <t>Simply well done</t>
+  </si>
+  <si>
+    <t>Seemingly just another mid range motel, but they get lots of things just right. Examples: in a place like Houston, the ac needs to be on before you get to your room. It was. The room was clean, and smelled like nothing. Not fresheners, not cleaning solutions, just like a clean room. The bathroom had decent uncluttered counter space. Desk has plugs including good usb plugs. And among the strongest and fastest free internet I've had in a hotel or motel. All at a good price. What's not to like?</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r374631734-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>374631734</t>
+  </si>
+  <si>
+    <t>05/19/2016</t>
+  </si>
+  <si>
+    <t>Wonderful Stay!!!!</t>
+  </si>
+  <si>
+    <t>Very clean hotel!!!  Enjoyed my stay here, and I really liked the staff. They were friendly and very welcoming. Plus, it had a great business room I used often. This place filled my needs, above and beyond my expectations. :)... LOVED IT!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>julietrudeau, Director of Sales at Comfort Suites Stafford, responded to this reviewResponded May 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2016</t>
+  </si>
+  <si>
+    <t>Very clean hotel!!!  Enjoyed my stay here, and I really liked the staff. They were friendly and very welcoming. Plus, it had a great business room I used often. This place filled my needs, above and beyond my expectations. :)... LOVED IT!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r362664639-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>362664639</t>
+  </si>
+  <si>
+    <t>04/08/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business with comfort but </t>
+  </si>
+  <si>
+    <t>The hotel was very nice, staff was real friendly but some accommodations need attention. Hot tub was not working, umbrellas outside didn't work, shower pressure was low and although the said they would take care of it it didn't get done during our three days. Yes I would stay here again but I hope they get things working.  MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>julietrudeau, Director of Sales at Comfort Suites Stafford, responded to this reviewResponded April 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2016</t>
+  </si>
+  <si>
+    <t>The hotel was very nice, staff was real friendly but some accommodations need attention. Hot tub was not working, umbrellas outside didn't work, shower pressure was low and although the said they would take care of it it didn't get done during our three days. Yes I would stay here again but I hope they get things working.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r354221981-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>354221981</t>
+  </si>
+  <si>
+    <t>03/09/2016</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised at the free breakfast options,  and I really appreciate the "store" they have where you can buy many convenience items.  My room is very comfortable and everything was in working order.   The noise in my room was a little excessive and the WiFi is not very good. Likely it had to do with my room's location and not the hotel in general.  It is a good choice for the area however a there are several eating places in walking distance. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>julietrudeau, Director of Sales at Comfort Suites Stafford, responded to this reviewResponded March 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 11, 2016</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised at the free breakfast options,  and I really appreciate the "store" they have where you can buy many convenience items.  My room is very comfortable and everything was in working order.   The noise in my room was a little excessive and the WiFi is not very good. Likely it had to do with my room's location and not the hotel in general.  It is a good choice for the area however a there are several eating places in walking distance. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r354112549-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>354112549</t>
+  </si>
+  <si>
+    <t>A Great First Experience</t>
+  </si>
+  <si>
+    <t>I had never stayed here before but needed a place for a spur-of-the-moment adventure. Walking in, it smelled very clean, everything was tidy and polished, and the Front Desk Rep, Sid, greeted me immediately. Check-in was super-easy and prompt. Manager Rahim Ali came in while I was checking in and was totally cordial and pleasant. As we talked, he even discussed with me the opportunity for his property to help support a non-profit group of which I am a member. I was impressed by the room - clean, orderly, and well-supplied with toiletries and towels. The bed was spotless and comfortable. The shower head was actually at a height appropriate for me at 5'11". I thoroughly enjoyed my stay and will definitely do business here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>I had never stayed here before but needed a place for a spur-of-the-moment adventure. Walking in, it smelled very clean, everything was tidy and polished, and the Front Desk Rep, Sid, greeted me immediately. Check-in was super-easy and prompt. Manager Rahim Ali came in while I was checking in and was totally cordial and pleasant. As we talked, he even discussed with me the opportunity for his property to help support a non-profit group of which I am a member. I was impressed by the room - clean, orderly, and well-supplied with toiletries and towels. The bed was spotless and comfortable. The shower head was actually at a height appropriate for me at 5'11". I thoroughly enjoyed my stay and will definitely do business here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r350921044-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>350921044</t>
+  </si>
+  <si>
+    <t>02/25/2016</t>
+  </si>
+  <si>
+    <t>The breakfast Omlette Lady is terrific!</t>
+  </si>
+  <si>
+    <t>Great spacious room, comfortable bed had a walk-in shower for my handicapped wife.  Definitely a "do this again" hotel.  Staff was very attentive and courteous.  Housekeeping made allowances for my wife's nap time.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great spacious room, comfortable bed had a walk-in shower for my handicapped wife.  Definitely a "do this again" hotel.  Staff was very attentive and courteous.  Housekeeping made allowances for my wife's nap time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r345086109-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>345086109</t>
+  </si>
+  <si>
+    <t>02/04/2016</t>
+  </si>
+  <si>
+    <t>Nice Hotel, Great location, 5 stars for me...</t>
+  </si>
+  <si>
+    <t>Excellent hotel in all aspects. Location was optimal and breakfast was very extensive and fresh. My room was very clean and the restrooms were wonderful. Staff was really amazing!  Would definitely come back. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>julietrudeau, Director of Sales at Comfort Suites Stafford, responded to this reviewResponded February 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 8, 2016</t>
+  </si>
+  <si>
+    <t>Excellent hotel in all aspects. Location was optimal and breakfast was very extensive and fresh. My room was very clean and the restrooms were wonderful. Staff was really amazing!  Would definitely come back. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r340695861-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>340695861</t>
+  </si>
+  <si>
+    <t>01/17/2016</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>Best hotel in town, price and comfort!!!  And the staff is awesome! The breakfast it's great! you should stay here!! The beds are ok! But no bad smells or something! Just a great hotel for 1 or 2 nights!!!!  the atmosphere it's ok!! MoreShow less</t>
+  </si>
+  <si>
+    <t>julietrudeau, Director of Sales at Comfort Suites Stafford, responded to this reviewResponded January 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2016</t>
+  </si>
+  <si>
+    <t>Best hotel in town, price and comfort!!!  And the staff is awesome! The breakfast it's great! you should stay here!! The beds are ok! But no bad smells or something! Just a great hotel for 1 or 2 nights!!!!  the atmosphere it's ok!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r331384562-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>331384562</t>
+  </si>
+  <si>
+    <t>12/08/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Another Satisfied Customer </t>
+  </si>
+  <si>
+    <t>My family and I  have stayed in a few of the hotels in the same area but this is the one we like the best. It's clean, up-to-date and affordable. We appreciate the friendly staff, wifi, Direct TV, and the free breakfast with a new item...made to order omelets, that wasn't  offered last time! We'll be bac next year, visiting family for the holiday and we'll definitely be staying here again, thanks and keep up the good work...I'm just another satisfied customer:)</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r327683764-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>327683764</t>
+  </si>
+  <si>
+    <t>11/18/2015</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>We took our college basketball team to Houston and stayed at this hotel. Excellent facilities and very friendly and helpful staff. The continental breakfast was very good. They treated us very well. I would definitely go back.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r327646784-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>327646784</t>
+  </si>
+  <si>
+    <t>Great service</t>
+  </si>
+  <si>
+    <t>Great place for visiting athletic teams. Our college basketball team was in town to play at Houston Baptist University. The staff went overboard to help our team coaches and staff with all our needs while we were in town. Great job!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r325834650-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>325834650</t>
+  </si>
+  <si>
+    <t>11/10/2015</t>
+  </si>
+  <si>
+    <t>Brett and Mary</t>
+  </si>
+  <si>
+    <t>The room was spacious, spotless, and had everything you could want in a room. The staff was excellent. Especially the evening clerk Melanie. She went out of her way to help us with every request we had.MoreShow less</t>
+  </si>
+  <si>
+    <t>julietrudeau, Director of Sales at Comfort Suites Stafford, responded to this reviewResponded November 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 12, 2015</t>
+  </si>
+  <si>
+    <t>The room was spacious, spotless, and had everything you could want in a room. The staff was excellent. Especially the evening clerk Melanie. She went out of her way to help us with every request we had.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r322935770-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>322935770</t>
+  </si>
+  <si>
+    <t>10/29/2015</t>
+  </si>
+  <si>
+    <t>super stay!!</t>
+  </si>
+  <si>
+    <t>came from india with family for the first time and stayed at the comfort suites stafford. its one of the best places i have ever stayed. what i usually look for is cleanliness and service. this place saves nothing for both. rooms are nice size, breakfast is great and beds are very comfortable just like its name. will surly stay here again during next visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>julietrudeau, Director of Sales at Comfort Suites Stafford, responded to this reviewResponded November 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 4, 2015</t>
+  </si>
+  <si>
+    <t>came from india with family for the first time and stayed at the comfort suites stafford. its one of the best places i have ever stayed. what i usually look for is cleanliness and service. this place saves nothing for both. rooms are nice size, breakfast is great and beds are very comfortable just like its name. will surly stay here again during next visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r322008674-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>322008674</t>
+  </si>
+  <si>
+    <t>10/26/2015</t>
+  </si>
+  <si>
+    <t>As always this hotel delivers... Super clean room, very friendly staff - quiet area with a great location to many restaurants in the area. My only complaint ever is that the wi-fi signal is always terrible... but they have direct TV in the rooms so we were good.  Many food places deliver here as well.Mrs Vanessa at the front desk was amazing! She helped us out and made us feel so welcome! She is truly an asset to this company!!! Thank you Mrs. Vanessa!MoreShow less</t>
+  </si>
+  <si>
+    <t>julietrudeau, Director of Sales at Comfort Suites Stafford, responded to this reviewResponded October 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 28, 2015</t>
+  </si>
+  <si>
+    <t>As always this hotel delivers... Super clean room, very friendly staff - quiet area with a great location to many restaurants in the area. My only complaint ever is that the wi-fi signal is always terrible... but they have direct TV in the rooms so we were good.  Many food places deliver here as well.Mrs Vanessa at the front desk was amazing! She helped us out and made us feel so welcome! She is truly an asset to this company!!! Thank you Mrs. Vanessa!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r320785480-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>320785480</t>
+  </si>
+  <si>
+    <t>10/21/2015</t>
+  </si>
+  <si>
+    <t>Business Trip for work. Overall great stay. Very helpful, hotel driver and the lady from the front desk was amazing...</t>
+  </si>
+  <si>
+    <t>Amazing stay.. Great customer service from the front desk and veryhelpful with the area. Beautiful, spacious, and clean rooms and suites Walking distance to many restaurants.Overall great stay and the hotel driver was great. Melanie front desk agent was very nice and helpful. MoreShow less</t>
+  </si>
+  <si>
+    <t>julietrudeau, Director of Sales at Comfort Suites Stafford, responded to this reviewResponded October 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 22, 2015</t>
+  </si>
+  <si>
+    <t>Amazing stay.. Great customer service from the front desk and veryhelpful with the area. Beautiful, spacious, and clean rooms and suites Walking distance to many restaurants.Overall great stay and the hotel driver was great. Melanie front desk agent was very nice and helpful. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r313117614-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>313117614</t>
+  </si>
+  <si>
+    <t>09/23/2015</t>
+  </si>
+  <si>
+    <t>Very nice place</t>
+  </si>
+  <si>
+    <t>Staff is very accommodating and extremely nice!! Comfortable rooms and good breakfast was in town for a training class. Centrally located around good restaurants. Hotel has a shuttle that are more than happy to take you anywhere locally during the week. Highly recommend!!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>julietrudeau, Director of Sales at Comfort Suites Stafford, responded to this reviewResponded October 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 13, 2015</t>
+  </si>
+  <si>
+    <t>Staff is very accommodating and extremely nice!! Comfortable rooms and good breakfast was in town for a training class. Centrally located around good restaurants. Hotel has a shuttle that are more than happy to take you anywhere locally during the week. Highly recommend!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r312029230-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>312029230</t>
+  </si>
+  <si>
+    <t>09/20/2015</t>
+  </si>
+  <si>
+    <t>A Great Hotel for its Price Range</t>
+  </si>
+  <si>
+    <t>This is the second time I had to come to Stafford for business and this is a great hotel to in.  Not an over the top luxury hotel, but not a run down joint like others nearby that charge the same or negligibly less for an over night.The staff is exceptionally friendly and attentive.  The breakfast is delicious.  The rooms are very clean and the property is well groomed and maintained.  Didn't use it, but the pool looks nice. Free Internet works well.MoreShow less</t>
+  </si>
+  <si>
+    <t>julietrudeau, Director of Sales at Comfort Suites Stafford, responded to this reviewResponded September 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 21, 2015</t>
+  </si>
+  <si>
+    <t>This is the second time I had to come to Stafford for business and this is a great hotel to in.  Not an over the top luxury hotel, but not a run down joint like others nearby that charge the same or negligibly less for an over night.The staff is exceptionally friendly and attentive.  The breakfast is delicious.  The rooms are very clean and the property is well groomed and maintained.  Didn't use it, but the pool looks nice. Free Internet works well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r310569892-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>310569892</t>
+  </si>
+  <si>
+    <t>09/15/2015</t>
+  </si>
+  <si>
+    <t>Location, Location, Location</t>
+  </si>
+  <si>
+    <t>The Comfort Inn is not the only hotel on the Techniplex drive in Stafford SW Houston, so why do we always go there?
+Especially as It’s a bog standard American chain hotel!
+The beds are comfortable. It comes with microwave, mini-fridge and a reasonable size bathroom (especially when you have to fit more than one kid in at a time).
+There is “TEA”!! – Lipton which I find weaker than what we get in blighty”. And a coffee machine. 
+As with most American hotels, don’t expect a kettle for your tea.  You have to microwave your water for your cuppa.
+The front desk is helpful. You feel that they are there to work with you and not just for the hotel chain.
+For example, there was some mix up about when we wanted the hotel room cleaned. 
+We got back and found it had not been made. 
+With kids, having your room made is what being on holiday is about. 
+Any way’s the regular cleaners had closed for the day. 
+The cleaning supervisor eventually came to clean the room himself. We were offered another room whilst we waited. 
+We declined (too much hassle to pack and un-pack) and the room was soon set right. 
+Why four stars?
+The OUTDOOR swimming pool is a huge part of the hotel stay, especially if you have kids. It was a bit windy whilst we were there. 
+This meant that there would always be...The Comfort Inn is not the only hotel on the Techniplex drive in Stafford SW Houston, so why do we always go there?Especially as It’s a bog standard American chain hotel!The beds are comfortable. It comes with microwave, mini-fridge and a reasonable size bathroom (especially when you have to fit more than one kid in at a time).There is “TEA”!! – Lipton which I find weaker than what we get in blighty”. And a coffee machine. As with most American hotels, don’t expect a kettle for your tea.  You have to microwave your water for your cuppa.The front desk is helpful. You feel that they are there to work with you and not just for the hotel chain.For example, there was some mix up about when we wanted the hotel room cleaned. We got back and found it had not been made. With kids, having your room made is what being on holiday is about. Any way’s the regular cleaners had closed for the day. The cleaning supervisor eventually came to clean the room himself. We were offered another room whilst we waited. We declined (too much hassle to pack and un-pack) and the room was soon set right. Why four stars?The OUTDOOR swimming pool is a huge part of the hotel stay, especially if you have kids. It was a bit windy whilst we were there. This meant that there would always be bits and pieces (twigs, leaves etc) in the pool. Not a huge concern for adults, but you know how your kids always swim with their mouths open!I had mentioned the state of the pool to the front desk. "Oh its always windy these days…." I ended up having to clean the pool up first before letting the kids in. One morning I found that one of the plastic pool chairs had blown into the pool!A once a day look in and a 10 minute sweep up would have kept it up to spec with the rest of the immaculate surrounding.Washing is the bane of my life so first thing is to find out which floor the laundry is (1st floor). Front desk is also helpful with finding quarters to feed the machines with.Location, Location, Location...I’m not one for going off the beaten track especially when you have little un’s in tow. As such the I59/69 is my favourite highway. It’s a straight shot (50mins or so) from George Bush International Airport to the Comfort Inn Stafford. Check in, drop your luggage and the number one thing on your mind is probably what to feed the kids. It’s a breakfast only establishment so you are already using the free wi-fi to find the nearest fast food joint. Guess what, literally across the car park in front of the hotel, is the “Americas Buffet”.  (There is a Mexican restaurant beside it. We never went in, only because the Americas Buffet was that much closer). Two minutes after dropping your bags you are in food heaven. Reasonably priced too. It’s not that well reviewed but as a pit-stop, it does the job.Return to the hotel, unpack, put the kids to bed and thinking of where to go for a “welcome" drink or two?  Within walking distance..Exit the hotel, make a right, walk across the side road and there’s a Hooter’s. For the uninitiated it’s a pub with waitresses dressed with the minimum acceptable dressing. Focus on your drink and it’s off to bed. If you wanted to be posh, there is a Sea food restaurant besides Hooters. Long and short almost all you need on arrival is within walking distance (and that’s a biggie in Texas where everywhere is far from everywhere).Breakfast buffet at the hotel has a good selection of food including "Texas shaped" strawberry waffle!!.  Also a well-stocked fruit bowl.  You can have your omelette custom made, while u wait.Breakfast done, kids chomping at the bit, drive out of the hotel car park, and almost directly opposite the hotel, across the highway, is Fountain Lake drive. (This means you have to take a 5 min drive there as you have to loop under the highway to get there).It’s got shopping (not grocery), restaurants, Cinema and a games arcade. I will say that there is not a lot for the under 6 in the games arcade. There is enough noise and flashing lights to keep the infants befuddled whilst you plan the rest of your holiday.1st Colony Mall in Sugar land is the go-to shoppers paradise for SW Houston. It’s a hop, skip and a jump from the hotel.The Methodist Hospital Complex is spitting distance from 1st Colony Mall.If I don't have to be downtown, the Comfort Inn, Stafford is my go-to hotel for short stays and as a launch pad to other destinations.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>julietrudeau, Director of Sales at Comfort Suites Stafford, responded to this reviewResponded September 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2015</t>
+  </si>
+  <si>
+    <t>The Comfort Inn is not the only hotel on the Techniplex drive in Stafford SW Houston, so why do we always go there?
+Especially as It’s a bog standard American chain hotel!
+The beds are comfortable. It comes with microwave, mini-fridge and a reasonable size bathroom (especially when you have to fit more than one kid in at a time).
+There is “TEA”!! – Lipton which I find weaker than what we get in blighty”. And a coffee machine. 
+As with most American hotels, don’t expect a kettle for your tea.  You have to microwave your water for your cuppa.
+The front desk is helpful. You feel that they are there to work with you and not just for the hotel chain.
+For example, there was some mix up about when we wanted the hotel room cleaned. 
+We got back and found it had not been made. 
+With kids, having your room made is what being on holiday is about. 
+Any way’s the regular cleaners had closed for the day. 
+The cleaning supervisor eventually came to clean the room himself. We were offered another room whilst we waited. 
+We declined (too much hassle to pack and un-pack) and the room was soon set right. 
+Why four stars?
+The OUTDOOR swimming pool is a huge part of the hotel stay, especially if you have kids. It was a bit windy whilst we were there. 
+This meant that there would always be...The Comfort Inn is not the only hotel on the Techniplex drive in Stafford SW Houston, so why do we always go there?Especially as It’s a bog standard American chain hotel!The beds are comfortable. It comes with microwave, mini-fridge and a reasonable size bathroom (especially when you have to fit more than one kid in at a time).There is “TEA”!! – Lipton which I find weaker than what we get in blighty”. And a coffee machine. As with most American hotels, don’t expect a kettle for your tea.  You have to microwave your water for your cuppa.The front desk is helpful. You feel that they are there to work with you and not just for the hotel chain.For example, there was some mix up about when we wanted the hotel room cleaned. We got back and found it had not been made. With kids, having your room made is what being on holiday is about. Any way’s the regular cleaners had closed for the day. The cleaning supervisor eventually came to clean the room himself. We were offered another room whilst we waited. We declined (too much hassle to pack and un-pack) and the room was soon set right. Why four stars?The OUTDOOR swimming pool is a huge part of the hotel stay, especially if you have kids. It was a bit windy whilst we were there. This meant that there would always be bits and pieces (twigs, leaves etc) in the pool. Not a huge concern for adults, but you know how your kids always swim with their mouths open!I had mentioned the state of the pool to the front desk. "Oh its always windy these days…." I ended up having to clean the pool up first before letting the kids in. One morning I found that one of the plastic pool chairs had blown into the pool!A once a day look in and a 10 minute sweep up would have kept it up to spec with the rest of the immaculate surrounding.Washing is the bane of my life so first thing is to find out which floor the laundry is (1st floor). Front desk is also helpful with finding quarters to feed the machines with.Location, Location, Location...I’m not one for going off the beaten track especially when you have little un’s in tow. As such the I59/69 is my favourite highway. It’s a straight shot (50mins or so) from George Bush International Airport to the Comfort Inn Stafford. Check in, drop your luggage and the number one thing on your mind is probably what to feed the kids. It’s a breakfast only establishment so you are already using the free wi-fi to find the nearest fast food joint. Guess what, literally across the car park in front of the hotel, is the “Americas Buffet”.  (There is a Mexican restaurant beside it. We never went in, only because the Americas Buffet was that much closer). Two minutes after dropping your bags you are in food heaven. Reasonably priced too. It’s not that well reviewed but as a pit-stop, it does the job.Return to the hotel, unpack, put the kids to bed and thinking of where to go for a “welcome" drink or two?  Within walking distance..Exit the hotel, make a right, walk across the side road and there’s a Hooter’s. For the uninitiated it’s a pub with waitresses dressed with the minimum acceptable dressing. Focus on your drink and it’s off to bed. If you wanted to be posh, there is a Sea food restaurant besides Hooters. Long and short almost all you need on arrival is within walking distance (and that’s a biggie in Texas where everywhere is far from everywhere).Breakfast buffet at the hotel has a good selection of food including "Texas shaped" strawberry waffle!!.  Also a well-stocked fruit bowl.  You can have your omelette custom made, while u wait.Breakfast done, kids chomping at the bit, drive out of the hotel car park, and almost directly opposite the hotel, across the highway, is Fountain Lake drive. (This means you have to take a 5 min drive there as you have to loop under the highway to get there).It’s got shopping (not grocery), restaurants, Cinema and a games arcade. I will say that there is not a lot for the under 6 in the games arcade. There is enough noise and flashing lights to keep the infants befuddled whilst you plan the rest of your holiday.1st Colony Mall in Sugar land is the go-to shoppers paradise for SW Houston. It’s a hop, skip and a jump from the hotel.The Methodist Hospital Complex is spitting distance from 1st Colony Mall.If I don't have to be downtown, the Comfort Inn, Stafford is my go-to hotel for short stays and as a launch pad to other destinations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r296018537-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>296018537</t>
+  </si>
+  <si>
+    <t>08/05/2015</t>
+  </si>
+  <si>
+    <t>Home Sweet Home</t>
+  </si>
+  <si>
+    <t>Was in the Houston area for a week on business.  Hotel was easily accessible from major roadways and was close to many stores and restaurants.  Very clean facility and any staff I encountered were very helpful.  Room was very clean and smelled fresh.  Bed was comfortable as were pillows and bathroom was spotless.  Look forward to my next visitMoreShow less</t>
+  </si>
+  <si>
+    <t>julietrudeau, Director of Sales at Comfort Suites Stafford, responded to this reviewResponded August 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 6, 2015</t>
+  </si>
+  <si>
+    <t>Was in the Houston area for a week on business.  Hotel was easily accessible from major roadways and was close to many stores and restaurants.  Very clean facility and any staff I encountered were very helpful.  Room was very clean and smelled fresh.  Bed was comfortable as were pillows and bathroom was spotless.  Look forward to my next visitMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r293167405-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>293167405</t>
+  </si>
+  <si>
+    <t>07/27/2015</t>
+  </si>
+  <si>
+    <t>good rooms, clean, comfortable pillows and beds</t>
+  </si>
+  <si>
+    <t>I stayed there in 2 different times on the same day, first time everything went well, second time i got a dirty room but i got another room, i think they were understaffed. Over all very good stay i recomended    MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed there in 2 different times on the same day, first time everything went well, second time i got a dirty room but i got another room, i think they were understaffed. Over all very good stay i recomended    More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r293053739-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>293053739</t>
+  </si>
+  <si>
+    <t>5 Stars all the way!</t>
+  </si>
+  <si>
+    <t>Excellent staff! Good service. Very nice clean and comfy room. Excellent bed. Parking easily accessible and available.Bathrooms were clean as well. A very good location, quite a few things to do around here. Will do business again! MoreShow less</t>
+  </si>
+  <si>
+    <t>julietrudeau, Director of Sales at Comfort Suites Stafford, responded to this reviewResponded July 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2015</t>
+  </si>
+  <si>
+    <t>Excellent staff! Good service. Very nice clean and comfy room. Excellent bed. Parking easily accessible and available.Bathrooms were clean as well. A very good location, quite a few things to do around here. Will do business again! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r288484213-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>288484213</t>
+  </si>
+  <si>
+    <t>07/13/2015</t>
+  </si>
+  <si>
+    <t>Never again.</t>
+  </si>
+  <si>
+    <t>My husband and I arrived at the hotel last night and had issues from the start. I came to Houston with my husband on a business trip so we had a business credit card to pay with. The man at the front didn't want to take the payment since my husbands id did not match the company card. We called and got one of the supervisors on the phone and it still didn't work. It's funny how their "policy" changed very quickly when I told him we would stay at the hotel next door. I understand there are policy's, just stick to them if they are real. Next, the updated rooms seem nice until you look closer. The room had such a strong odor of paint and wasn't completely redone. The jacuzzi tub looked nice until we found out the jets were broken...I kept stepping on a tack strip where the tile meets the carpet that hurt...the coffee pot had what looked like a crusty residue in it. The food that I had for breakfast tasted old, and there was no flavored creamer for the coffee. Pros: The bed was comfortable and there were restaurants within walking distance. I will not stay here again though.MoreShow less</t>
+  </si>
+  <si>
+    <t>julietrudeau, Director of Sales at Comfort Suites Stafford, responded to this reviewResponded July 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2015</t>
+  </si>
+  <si>
+    <t>My husband and I arrived at the hotel last night and had issues from the start. I came to Houston with my husband on a business trip so we had a business credit card to pay with. The man at the front didn't want to take the payment since my husbands id did not match the company card. We called and got one of the supervisors on the phone and it still didn't work. It's funny how their "policy" changed very quickly when I told him we would stay at the hotel next door. I understand there are policy's, just stick to them if they are real. Next, the updated rooms seem nice until you look closer. The room had such a strong odor of paint and wasn't completely redone. The jacuzzi tub looked nice until we found out the jets were broken...I kept stepping on a tack strip where the tile meets the carpet that hurt...the coffee pot had what looked like a crusty residue in it. The food that I had for breakfast tasted old, and there was no flavored creamer for the coffee. Pros: The bed was comfortable and there were restaurants within walking distance. I will not stay here again though.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r285816295-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>285816295</t>
+  </si>
+  <si>
+    <t>07/05/2015</t>
+  </si>
+  <si>
+    <t>Excellent and Marvelous</t>
+  </si>
+  <si>
+    <t>This is the best hotel in Sugar Land for me. The bedrooms are so comfortable and believe me I didn't feel like i was away from home as everything needed was there for me. The bed was amazing, the wifi made things easier for me. The breakfast was absolute enjoyable. I would visit again anytime I am in Texas. Keep it up.MoreShow less</t>
+  </si>
+  <si>
+    <t>Julie T, Manager at Comfort Suites Stafford, responded to this reviewResponded July 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2015</t>
+  </si>
+  <si>
+    <t>This is the best hotel in Sugar Land for me. The bedrooms are so comfortable and believe me I didn't feel like i was away from home as everything needed was there for me. The bed was amazing, the wifi made things easier for me. The breakfast was absolute enjoyable. I would visit again anytime I am in Texas. Keep it up.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r283382199-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>283382199</t>
+  </si>
+  <si>
+    <t>06/27/2015</t>
+  </si>
+  <si>
+    <t>Great customer service and excellent ability to accommodate my needs.</t>
+  </si>
+  <si>
+    <t>I visited this location after my reservations at another hotel close got lost or cancelled somehow. I drove from out of town to take my daughter on a small vacation to the zoo and museums. I spoke to Julie Trudeau at the front desk about our situation and she was able to accommodate us with a beautiful room and a very reasonable rate. She was friendly with all of our interactions and made me and my daughter feel very welcomed and comforted with her personalized service. I travel a lot with my business and have encountered both good and bad service, but the level of friendliness, courtesy, and personalized service made me and my daughter feel like VIP status. Would recommend this location for the great rooms and more so for the hospitality that makes you feel at home.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Julie T, Director of Sales at Comfort Suites Stafford, responded to this reviewResponded June 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2015</t>
+  </si>
+  <si>
+    <t>I visited this location after my reservations at another hotel close got lost or cancelled somehow. I drove from out of town to take my daughter on a small vacation to the zoo and museums. I spoke to Julie Trudeau at the front desk about our situation and she was able to accommodate us with a beautiful room and a very reasonable rate. She was friendly with all of our interactions and made me and my daughter feel very welcomed and comforted with her personalized service. I travel a lot with my business and have encountered both good and bad service, but the level of friendliness, courtesy, and personalized service made me and my daughter feel like VIP status. Would recommend this location for the great rooms and more so for the hospitality that makes you feel at home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r280229562-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>280229562</t>
+  </si>
+  <si>
+    <t>06/14/2015</t>
+  </si>
+  <si>
+    <t>Great hotel!</t>
+  </si>
+  <si>
+    <t>We stayed in this hotel for softball tournament this weekend and had a great time.  Staff went over and beyond to make our stay more comfortable and enjoyable.  The staff was very friendly!  Our girls had a great time!MoreShow less</t>
+  </si>
+  <si>
+    <t>Julie T, Director of Sales at Comfort Suites Stafford, responded to this reviewResponded June 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2015</t>
+  </si>
+  <si>
+    <t>We stayed in this hotel for softball tournament this weekend and had a great time.  Staff went over and beyond to make our stay more comfortable and enjoyable.  The staff was very friendly!  Our girls had a great time!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r280217049-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>280217049</t>
+  </si>
+  <si>
+    <t>Catered to our every need</t>
+  </si>
+  <si>
+    <t>With 2 softball teams staying here over the weekend the hotel went above &amp; beyond multiple times. From serving breakfast early when we had 8am games to letting us use the mtg room to watch a movie as a team.MoreShow less</t>
+  </si>
+  <si>
+    <t>With 2 softball teams staying here over the weekend the hotel went above &amp; beyond multiple times. From serving breakfast early when we had 8am games to letting us use the mtg room to watch a movie as a team.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r278243378-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>278243378</t>
+  </si>
+  <si>
+    <t>06/06/2015</t>
+  </si>
+  <si>
+    <t>Mildew/mold</t>
+  </si>
+  <si>
+    <t>though the room was neat and clean, the smell was horrible in room. As soon as I opened the door it just about knocked me down. Mold is not the smell you want anytime, but especially when traveling. Mold is DANGEROUS! MoreShow less</t>
+  </si>
+  <si>
+    <t>julietrudeau, Director of Sales at Comfort Suites Stafford, responded to this reviewResponded June 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2015</t>
+  </si>
+  <si>
+    <t>though the room was neat and clean, the smell was horrible in room. As soon as I opened the door it just about knocked me down. Mold is not the smell you want anytime, but especially when traveling. Mold is DANGEROUS! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r273445574-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>273445574</t>
+  </si>
+  <si>
+    <t>05/20/2015</t>
+  </si>
+  <si>
+    <t>Amazing service!!!</t>
+  </si>
+  <si>
+    <t>The staff was amazing!  They brought us a needle and thread when my wife's shirt tore. They also let us stay a few extra hours to find a rental vehicle after we were in an accident the night of our stay.  the rooms were beautiful and comfortable. I will be staying there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>julietrudeau, Director of Sales at Comfort Suites Stafford, responded to this reviewResponded May 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2015</t>
+  </si>
+  <si>
+    <t>The staff was amazing!  They brought us a needle and thread when my wife's shirt tore. They also let us stay a few extra hours to find a rental vehicle after we were in an accident the night of our stay.  the rooms were beautiful and comfortable. I will be staying there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r272373078-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>272373078</t>
+  </si>
+  <si>
+    <t>05/16/2015</t>
+  </si>
+  <si>
+    <t>outstanding area and supportive in emergency</t>
+  </si>
+  <si>
+    <t>This hotel is surrounded by great restaurants and in a safe area. We stayed for our 1 year anniversary and at 1 a.m. going back to the hotel we were hit broadside and our car totaled...we were taken to the hotel and they we r so supportive, letting us stay late trying to find a car rental and a way to get back home the hour and half deive. They let us keep the luggage there to go eat wai to ng onthe rental. This was an aawesome hotel.  Much thanks to the staff for all the help.MoreShow less</t>
+  </si>
+  <si>
+    <t>julietrudeau, Director of Sales at Comfort Suites Stafford, responded to this reviewResponded May 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2015</t>
+  </si>
+  <si>
+    <t>This hotel is surrounded by great restaurants and in a safe area. We stayed for our 1 year anniversary and at 1 a.m. going back to the hotel we were hit broadside and our car totaled...we were taken to the hotel and they we r so supportive, letting us stay late trying to find a car rental and a way to get back home the hour and half deive. They let us keep the luggage there to go eat wai to ng onthe rental. This was an aawesome hotel.  Much thanks to the staff for all the help.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r270270495-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>270270495</t>
+  </si>
+  <si>
+    <t>05/05/2015</t>
+  </si>
+  <si>
+    <t>M&amp;M:  Melanie and Maye</t>
+  </si>
+  <si>
+    <t>I had a last minute project for work and was told I would only need to stay one day.  Of course it ended up being three days.  The staff was very accomodating to my situation.  Maye (front desk clerk, morning) made it possible to hold my room just in case I had to stay an extra night.  Melanie (front desk clerk afternoon) was able to get me supplies to wash my clothes and made me feel like I wasn't putting them out.  I must say I'm usually good at planning work trips, but this was unorthodox for me, and they made feel like I was their best guest.  My company uses Comfort Inn a lot, and now I understand why.  I highly recommend this hotel, and I don't mind that there are no dumbells in the weight room, and there are no dumbells on this staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>julietrudeau, Director of Sales at Comfort Suites Stafford, responded to this reviewResponded May 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 6, 2015</t>
+  </si>
+  <si>
+    <t>I had a last minute project for work and was told I would only need to stay one day.  Of course it ended up being three days.  The staff was very accomodating to my situation.  Maye (front desk clerk, morning) made it possible to hold my room just in case I had to stay an extra night.  Melanie (front desk clerk afternoon) was able to get me supplies to wash my clothes and made me feel like I wasn't putting them out.  I must say I'm usually good at planning work trips, but this was unorthodox for me, and they made feel like I was their best guest.  My company uses Comfort Inn a lot, and now I understand why.  I highly recommend this hotel, and I don't mind that there are no dumbells in the weight room, and there are no dumbells on this staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r267607797-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>267607797</t>
+  </si>
+  <si>
+    <t>04/23/2015</t>
+  </si>
+  <si>
+    <t>Amazing experience!!</t>
+  </si>
+  <si>
+    <t>I loved my stay at the Comfort Suites! My room was huge and included a separate sitting area. The room had a flat screen TV with an amazing channel selection...loved it!!! The breakfast had a great selection! Maye at the Front Desk was extremely nice and very professional!! All I have to say is that my stay was worth every penny and I will definitely return when I'm back in Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>julietrudeau, Director of Sales at Comfort Suites Stafford, responded to this reviewResponded April 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2015</t>
+  </si>
+  <si>
+    <t>I loved my stay at the Comfort Suites! My room was huge and included a separate sitting area. The room had a flat screen TV with an amazing channel selection...loved it!!! The breakfast had a great selection! Maye at the Front Desk was extremely nice and very professional!! All I have to say is that my stay was worth every penny and I will definitely return when I'm back in Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r267352993-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>267352993</t>
+  </si>
+  <si>
+    <t>04/22/2015</t>
+  </si>
+  <si>
+    <t>Excellent Service, Room, and Experience!!!</t>
+  </si>
+  <si>
+    <t>We absolutely loved our stay at Comfort Suites in Stafford! We were here on a family vacation and loved everything! The management at Comfort Suites were incredibly friendly and went out of there way to make sure our stay was perfect! The breakfast was outstanding, the location and free parking was great, and our room was clean and very modern. We have a toddler and absolutely loved that the room came with a fridge and microwave so we can store food and milk for her. I would definitely recommend staying here to all of my friends and family and will absolutely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>julietrudeau, Director of Sales at Comfort Suites Stafford, responded to this reviewResponded April 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 23, 2015</t>
+  </si>
+  <si>
+    <t>We absolutely loved our stay at Comfort Suites in Stafford! We were here on a family vacation and loved everything! The management at Comfort Suites were incredibly friendly and went out of there way to make sure our stay was perfect! The breakfast was outstanding, the location and free parking was great, and our room was clean and very modern. We have a toddler and absolutely loved that the room came with a fridge and microwave so we can store food and milk for her. I would definitely recommend staying here to all of my friends and family and will absolutely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r267329967-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>267329967</t>
+  </si>
+  <si>
+    <t>Wonderful Hospitality</t>
+  </si>
+  <si>
+    <t>We had a family reunion last weekend and all of us stayed here at Comfort Suites. We had a great experience with the hotel and definitely will return in the future. The staff was really helpful and also provided us with hot and fresh breakfast. The rooms were really spacious and clean! If you have a little one, this hotel provides a crib so you don’t have to carry your own pack and play.  I would recommend this hotel to all my family and friends!MoreShow less</t>
+  </si>
+  <si>
+    <t>We had a family reunion last weekend and all of us stayed here at Comfort Suites. We had a great experience with the hotel and definitely will return in the future. The staff was really helpful and also provided us with hot and fresh breakfast. The rooms were really spacious and clean! If you have a little one, this hotel provides a crib so you don’t have to carry your own pack and play.  I would recommend this hotel to all my family and friends!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r266837714-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>266837714</t>
+  </si>
+  <si>
+    <t>04/20/2015</t>
+  </si>
+  <si>
+    <t>Great Hotel.. great breakfast, good clean rooms</t>
+  </si>
+  <si>
+    <t>Great value. great location right off 59.Will definitely stay here againthey have a omelet section for breakfast where they are made to order.really great service and environment. great rooms, great lobby, friendly and accomodating staffMoreShow less</t>
+  </si>
+  <si>
+    <t>julietrudeau, Director of Sales at Comfort Suites Stafford, responded to this reviewResponded April 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2015</t>
+  </si>
+  <si>
+    <t>Great value. great location right off 59.Will definitely stay here againthey have a omelet section for breakfast where they are made to order.really great service and environment. great rooms, great lobby, friendly and accomodating staffMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r266253659-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>266253659</t>
+  </si>
+  <si>
+    <t>04/17/2015</t>
+  </si>
+  <si>
+    <t>Great location, friendly service, excellent morning omelet !</t>
+  </si>
+  <si>
+    <t>Stayed here on business in Houston, just one night. Rooms were updated very recently, extensive cable tv stations (150+ I think) Staff was friendly, rooms were clean, common areas were tidy. Short walking distance to multiple restaurants and easy commute into Houston. Excellent morning omelet station!MoreShow less</t>
+  </si>
+  <si>
+    <t>julietrudeau, Director of Sales at Comfort Suites Stafford, responded to this reviewResponded April 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 20, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here on business in Houston, just one night. Rooms were updated very recently, extensive cable tv stations (150+ I think) Staff was friendly, rooms were clean, common areas were tidy. Short walking distance to multiple restaurants and easy commute into Houston. Excellent morning omelet station!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r266111452-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>266111452</t>
+  </si>
+  <si>
+    <t>04/16/2015</t>
+  </si>
+  <si>
+    <t>wonderfully managed hotel</t>
+  </si>
+  <si>
+    <t>Excellently run hotel.  The recent renovations are very nice, as is the addition of a little corner store inside the hotel that has quite the selection.  Breakfast is great due to the addition of REAL EGG omelets. They make them to your specifications, fresh, and quick.  They are so much better than the egg substitute, frozen, yucky things most hotels try to pass as a breakfast food.  The front desk and management have been very accommodating with any requests that we have had and have made the stay most enjoyable. I highly recommend this location.MoreShow less</t>
+  </si>
+  <si>
+    <t>Excellently run hotel.  The recent renovations are very nice, as is the addition of a little corner store inside the hotel that has quite the selection.  Breakfast is great due to the addition of REAL EGG omelets. They make them to your specifications, fresh, and quick.  They are so much better than the egg substitute, frozen, yucky things most hotels try to pass as a breakfast food.  The front desk and management have been very accommodating with any requests that we have had and have made the stay most enjoyable. I highly recommend this location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r263151633-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>263151633</t>
+  </si>
+  <si>
+    <t>04/01/2015</t>
+  </si>
+  <si>
+    <t>The staff is first class you should feel great to have each and everyone</t>
+  </si>
+  <si>
+    <t>I came here for a business move was greeted with a smile when I walked through the door. I have been here a week now the front desk staff has been first class. Also the lady in the morning that handles the break fast and makes the omelets has a great smile and attitude. I have moved 5 times sense July 2014 staying in different hotels this is by far the best. THANK YOU TO THIS STAFF!MoreShow less</t>
+  </si>
+  <si>
+    <t>julietrudeau, Director of Sales at Comfort Suites Stafford, responded to this reviewResponded April 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2015</t>
+  </si>
+  <si>
+    <t>I came here for a business move was greeted with a smile when I walked through the door. I have been here a week now the front desk staff has been first class. Also the lady in the morning that handles the break fast and makes the omelets has a great smile and attitude. I have moved 5 times sense July 2014 staying in different hotels this is by far the best. THANK YOU TO THIS STAFF!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r261874901-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>261874901</t>
+  </si>
+  <si>
+    <t>03/26/2015</t>
+  </si>
+  <si>
+    <t>very clean and friendly</t>
+  </si>
+  <si>
+    <t>Very clean and friendly. Also great Breakfast!!!!! The Hotel was in a great location on Hwy 59. You have great shops and dinning places within walking Distance to the hotel. Great place to take the family.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>julietrudeau, Director of Sales at Comfort Suites Stafford, responded to this reviewResponded March 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2015</t>
+  </si>
+  <si>
+    <t>Very clean and friendly. Also great Breakfast!!!!! The Hotel was in a great location on Hwy 59. You have great shops and dinning places within walking Distance to the hotel. Great place to take the family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r259685374-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>259685374</t>
+  </si>
+  <si>
+    <t>03/15/2015</t>
+  </si>
+  <si>
+    <t>very comfortable bed</t>
+  </si>
+  <si>
+    <t>First time here and we loved it. The place was clean and it had what we needed, a super comfortable bed to rest from hours of driving. The suite had a decent size tv with microwave, fridge and a sofa bed as well.  They offer free  continental  breakfast even the weekends. We will definitely go back to this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>Julie T, Director of Sales at Comfort Suites Stafford, responded to this reviewResponded March 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 17, 2015</t>
+  </si>
+  <si>
+    <t>First time here and we loved it. The place was clean and it had what we needed, a super comfortable bed to rest from hours of driving. The suite had a decent size tv with microwave, fridge and a sofa bed as well.  They offer free  continental  breakfast even the weekends. We will definitely go back to this hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r256828330-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>256828330</t>
+  </si>
+  <si>
+    <t>02/27/2015</t>
+  </si>
+  <si>
+    <t>Comfortable Visit</t>
+  </si>
+  <si>
+    <t>Great place to stay, very clean, comfortable rooms, with plenty of room to move around.   Staff was friendly &amp; very accommodating, couldn't have been nicer.  Breakfast buffet offers a great selection, especially the omelet station.  Easy access to many surrounding restaurants &amp; nearby shopping.  Would not hesitate to recommend to family &amp; friends.  Look forward to returning when again in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Julie T, Director of Sales at Comfort Suites Stafford, responded to this reviewResponded March 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 2, 2015</t>
+  </si>
+  <si>
+    <t>Great place to stay, very clean, comfortable rooms, with plenty of room to move around.   Staff was friendly &amp; very accommodating, couldn't have been nicer.  Breakfast buffet offers a great selection, especially the omelet station.  Easy access to many surrounding restaurants &amp; nearby shopping.  Would not hesitate to recommend to family &amp; friends.  Look forward to returning when again in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r256790565-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>256790565</t>
+  </si>
+  <si>
+    <t>Great Hotel and excellent Service</t>
+  </si>
+  <si>
+    <t>I was so impressed when I went down for breakfast and found the desk person that checked me in the night before (Marie) cooking to-order omelets that were fresh and delicious. One small issue with not receiving HBO and it was corrected in minutes. This is a well oiled machine that knows how to treat the guests. You won't be disappointed.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>I was so impressed when I went down for breakfast and found the desk person that checked me in the night before (Marie) cooking to-order omelets that were fresh and delicious. One small issue with not receiving HBO and it was corrected in minutes. This is a well oiled machine that knows how to treat the guests. You won't be disappointed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r256725950-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>256725950</t>
+  </si>
+  <si>
+    <t>Family Wedding</t>
+  </si>
+  <si>
+    <t>We traveled to the Houston area for a family wedding with people coming from all areas of the United States.  The accommodations were spacious, meticulously clean and we were all able to be near each other for visiting during our stay.  Our needs were anticipated in every area of our stay.  Couldn't have been better.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>We traveled to the Houston area for a family wedding with people coming from all areas of the United States.  The accommodations were spacious, meticulously clean and we were all able to be near each other for visiting during our stay.  Our needs were anticipated in every area of our stay.  Couldn't have been better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r255432788-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>255432788</t>
+  </si>
+  <si>
+    <t>02/20/2015</t>
+  </si>
+  <si>
+    <t>Excellent and Comfortable stay I have had</t>
+  </si>
+  <si>
+    <t>I have had about 3 weeks of stay and with the initial few days, I didn't realize that revamping, I have had my own inhibitions as my previous trip with Marriott near by was great. However, with the recent renovations and the facelift efforts this hotel have had, the stay was more than pleasant. They TV and the cable connection units were absolute fun to watch with more than 150+ channels. Breakfast spread with the recently included chef's specials were icing on the cake. The rooms were always cleaner and the support staff did a wonderful job to make my trip feel at home throughout the last 3 weeks.Thanks for providing wonderful hospitality and I strongly recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>Julie T, Director of Sales at Comfort Suites Stafford, responded to this reviewResponded February 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2015</t>
+  </si>
+  <si>
+    <t>I have had about 3 weeks of stay and with the initial few days, I didn't realize that revamping, I have had my own inhibitions as my previous trip with Marriott near by was great. However, with the recent renovations and the facelift efforts this hotel have had, the stay was more than pleasant. They TV and the cable connection units were absolute fun to watch with more than 150+ channels. Breakfast spread with the recently included chef's specials were icing on the cake. The rooms were always cleaner and the support staff did a wonderful job to make my trip feel at home throughout the last 3 weeks.Thanks for providing wonderful hospitality and I strongly recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r254116660-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>254116660</t>
+  </si>
+  <si>
+    <t>02/14/2015</t>
+  </si>
+  <si>
+    <t>Overall a nice and calm stay for a business Visit</t>
+  </si>
+  <si>
+    <t>I am staying here from last two weeks, on a business trip from India. It is located just off the south west freeway. It has few restaurants nearby for quick grabs. Hospitality is really good, the staff is really helpful and cater to your needs.Breakfast spread has Eggs, omlets, waffles, sausages, breads and cereals. It is enough to fill you up for a long day.Overall a comfortable stay!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Julie T, Manager at Comfort Suites Stafford, responded to this reviewResponded February 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 19, 2015</t>
+  </si>
+  <si>
+    <t>I am staying here from last two weeks, on a business trip from India. It is located just off the south west freeway. It has few restaurants nearby for quick grabs. Hospitality is really good, the staff is really helpful and cater to your needs.Breakfast spread has Eggs, omlets, waffles, sausages, breads and cereals. It is enough to fill you up for a long day.Overall a comfortable stay!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r253534992-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>253534992</t>
+  </si>
+  <si>
+    <t>02/10/2015</t>
+  </si>
+  <si>
+    <t>Great hospitality</t>
+  </si>
+  <si>
+    <t>Extremely friendly staff, loved the breakfast &amp; rooms were extra clean !! Easy excess to freeway also surrounded with many restaurants !!  If you're visiting Sugarland or Stafford I suggest you pick this hotel. 5 stars to the staff for the superior service.MoreShow less</t>
+  </si>
+  <si>
+    <t>Julie T, General Manager at Comfort Suites Stafford, responded to this reviewResponded February 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 13, 2015</t>
+  </si>
+  <si>
+    <t>Extremely friendly staff, loved the breakfast &amp; rooms were extra clean !! Easy excess to freeway also surrounded with many restaurants !!  If you're visiting Sugarland or Stafford I suggest you pick this hotel. 5 stars to the staff for the superior service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r252611704-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>252611704</t>
+  </si>
+  <si>
+    <t>02/04/2015</t>
+  </si>
+  <si>
+    <t>Jon</t>
+  </si>
+  <si>
+    <t>Would stay again. Rooms were comfortable and quiet. The breakfast had omelets made to order. The fitness center was adequate for a workout on the road. Allowed for a late check out which was convenient for us as we were traveling. MoreShow less</t>
+  </si>
+  <si>
+    <t>Julie T, Manager at Comfort Suites Stafford, responded to this reviewResponded February 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 11, 2015</t>
+  </si>
+  <si>
+    <t>Would stay again. Rooms were comfortable and quiet. The breakfast had omelets made to order. The fitness center was adequate for a workout on the road. Allowed for a late check out which was convenient for us as we were traveling. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r247002961-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>247002961</t>
+  </si>
+  <si>
+    <t>01/02/2015</t>
+  </si>
+  <si>
+    <t>Renovating</t>
+  </si>
+  <si>
+    <t>The room was comfortable (though too warm).  However, they placed us in rooms right below where renovation was being completed, which started before 9 a.m.  Very noisy.  Breakfast was mediocre, at best - watery juice, microwave that stopped working.  Despite signs, there was no vending machine, which necessitated water being bought from the "market" in the lobby, thus costing more.  Do not recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>The room was comfortable (though too warm).  However, they placed us in rooms right below where renovation was being completed, which started before 9 a.m.  Very noisy.  Breakfast was mediocre, at best - watery juice, microwave that stopped working.  Despite signs, there was no vending machine, which necessitated water being bought from the "market" in the lobby, thus costing more.  Do not recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r231733704-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>231733704</t>
+  </si>
+  <si>
+    <t>09/29/2014</t>
+  </si>
+  <si>
+    <t>Pleasant stay. Lots of places to eat within walking distance.</t>
+  </si>
+  <si>
+    <t>Great place to stay. Staff was very nice. Rooms we large, clean and comfortable. Lots of options for dinner close by within walking distance. Would stay again. Receptionist also was very polite and helpful in providing information about the city.MoreShow less</t>
+  </si>
+  <si>
+    <t>julietrudeau, Manager at Comfort Suites Stafford, responded to this reviewResponded October 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 6, 2014</t>
+  </si>
+  <si>
+    <t>Great place to stay. Staff was very nice. Rooms we large, clean and comfortable. Lots of options for dinner close by within walking distance. Would stay again. Receptionist also was very polite and helpful in providing information about the city.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r209404080-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>209404080</t>
+  </si>
+  <si>
+    <t>06/08/2014</t>
+  </si>
+  <si>
+    <t>Great option for the value</t>
+  </si>
+  <si>
+    <t>Clean, quiet, comfortable and good rates. I could not wish more for a business tripBoth check in and check out were fast, there is a free parking space and is located in walking distance from a couple restaurants for dinner and Hooters is close by tooIn short. Great stayMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>julietrudeau, Manager at Comfort Suites Stafford, responded to this reviewResponded July 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2014</t>
+  </si>
+  <si>
+    <t>Clean, quiet, comfortable and good rates. I could not wish more for a business tripBoth check in and check out were fast, there is a free parking space and is located in walking distance from a couple restaurants for dinner and Hooters is close by tooIn short. Great stayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r198835747-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>198835747</t>
+  </si>
+  <si>
+    <t>03/26/2014</t>
+  </si>
+  <si>
+    <t>Great place for solo travelers!</t>
+  </si>
+  <si>
+    <t>Traveled there recently for business and found it to be extremely comfortable and safe.  Room clean, and felt very safe. Close to many restaurants.  A very friendly desk staff and the Free Breakfast was good and an added plus.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Traveled there recently for business and found it to be extremely comfortable and safe.  Room clean, and felt very safe. Close to many restaurants.  A very friendly desk staff and the Free Breakfast was good and an added plus.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r196297063-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>196297063</t>
+  </si>
+  <si>
+    <t>03/05/2014</t>
+  </si>
+  <si>
+    <t>Comfortable and clean</t>
+  </si>
+  <si>
+    <t>My wife and I traveled to Houston to visit some family, and we stayed at this hotel for two nights.  Despite arriving in the morning, we were allowed to check into our room and get settled in.  Our room was large and clean, and the bed was extremely comfortable. There is a microwave, coffee maker, and refrigerator in the room, which was extremely convenient.  The only downside is that this hotel is located right off a major highway (Frontage Rd and I-69).  If you want to walk somewhere, you are pretty much limited to a few restaurants on the same side of the street as the hotel.  Otherwise, you'll need to get into a car and drive.  On the other hand, if you happen to have a car, you can easily get onto the highway. Breakfast was pretty standard fare:  your choice of baked pastries, breads, cereal, yogurt, coffee, juice, etc.  There is a selection of hot items that change daily as well as a waffle maker.  Wifi access is free in the room, and there is a business center as well (which will come in handy if you need to print out boarding passes for your flight).  Overall, I found this hotel very comfortable and a good value.MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife and I traveled to Houston to visit some family, and we stayed at this hotel for two nights.  Despite arriving in the morning, we were allowed to check into our room and get settled in.  Our room was large and clean, and the bed was extremely comfortable. There is a microwave, coffee maker, and refrigerator in the room, which was extremely convenient.  The only downside is that this hotel is located right off a major highway (Frontage Rd and I-69).  If you want to walk somewhere, you are pretty much limited to a few restaurants on the same side of the street as the hotel.  Otherwise, you'll need to get into a car and drive.  On the other hand, if you happen to have a car, you can easily get onto the highway. Breakfast was pretty standard fare:  your choice of baked pastries, breads, cereal, yogurt, coffee, juice, etc.  There is a selection of hot items that change daily as well as a waffle maker.  Wifi access is free in the room, and there is a business center as well (which will come in handy if you need to print out boarding passes for your flight).  Overall, I found this hotel very comfortable and a good value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r184729522-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>184729522</t>
+  </si>
+  <si>
+    <t>11/14/2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rooms need updating! </t>
+  </si>
+  <si>
+    <t>The room is in great need of updating. The light fixtures were broken, the furniture looks like they got it from a garage sale, and the bed was uncomfortable. It was a one night stay, but I wouldn't return. The staff was nice and welcoming. Overall a little disappointed in the up keep. It's very "mediocre" and with a little TLC it could be worth coming back! MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>julietrudeau, Manager at Comfort Suites Stafford, responded to this reviewResponded November 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2013</t>
+  </si>
+  <si>
+    <t>The room is in great need of updating. The light fixtures were broken, the furniture looks like they got it from a garage sale, and the bed was uncomfortable. It was a one night stay, but I wouldn't return. The staff was nice and welcoming. Overall a little disappointed in the up keep. It's very "mediocre" and with a little TLC it could be worth coming back! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r183459489-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>183459489</t>
+  </si>
+  <si>
+    <t>11/03/2013</t>
+  </si>
+  <si>
+    <t>Great customer service but watch the rooms.</t>
+  </si>
+  <si>
+    <t>The front desk is one of the friendliest.  They checked us in fast and were helpful with directions to point of interests.  However room was unfinished.  Outlet plate was hanging off the wall and the bathroom sink appeared to have mold underneath.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Julie T, General Manager at Comfort Suites Stafford, responded to this reviewResponded February 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 14, 2015</t>
+  </si>
+  <si>
+    <t>The front desk is one of the friendliest.  They checked us in fast and were helpful with directions to point of interests.  However room was unfinished.  Outlet plate was hanging off the wall and the bathroom sink appeared to have mold underneath.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r177530034-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>177530034</t>
+  </si>
+  <si>
+    <t>09/17/2013</t>
+  </si>
+  <si>
+    <t>Reunion Time</t>
+  </si>
+  <si>
+    <t>Check-in was smooth and easy.  I think you had to ask for two keys because we only received one (it just makes it easier if there are two people in a room). The room was nice and clean.  The beds were comfortable.  It was a nice quiet stay. Breakfast was a bit different from what I'm use to.  We had to wait for them to bring out more bacon and eggs.  The eggs were in the shape of a circle, not even the size of a small pancake. The coffee was very good!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Check-in was smooth and easy.  I think you had to ask for two keys because we only received one (it just makes it easier if there are two people in a room). The room was nice and clean.  The beds were comfortable.  It was a nice quiet stay. Breakfast was a bit different from what I'm use to.  We had to wait for them to bring out more bacon and eggs.  The eggs were in the shape of a circle, not even the size of a small pancake. The coffee was very good!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r162883878-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>162883878</t>
+  </si>
+  <si>
+    <t>06/03/2013</t>
+  </si>
+  <si>
+    <t>Best night's sleep!</t>
+  </si>
+  <si>
+    <t>The hotel was close to family we were visiting. The continental breakfast was the same as most - dry cereal and hard, dry eggs. The staff were friendly and cordial. The room was good sized. Though it was a non smoking room, someone had because the room was warm when we entered and you could smell it. The best feature was the a/c! It got COLD in the room and I slept like a rock!! I never sleep through the night but I was so comfortable in that cold room!! Convenient to I-59 and restaurants! Got a great online price. Would stay here again!!MoreShow less</t>
+  </si>
+  <si>
+    <t>julietrudeau, Manager at Comfort Suites Stafford, responded to this reviewResponded June 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2013</t>
+  </si>
+  <si>
+    <t>The hotel was close to family we were visiting. The continental breakfast was the same as most - dry cereal and hard, dry eggs. The staff were friendly and cordial. The room was good sized. Though it was a non smoking room, someone had because the room was warm when we entered and you could smell it. The best feature was the a/c! It got COLD in the room and I slept like a rock!! I never sleep through the night but I was so comfortable in that cold room!! Convenient to I-59 and restaurants! Got a great online price. Would stay here again!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r162626159-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>162626159</t>
+  </si>
+  <si>
+    <t>06/01/2013</t>
+  </si>
+  <si>
+    <t>Graduation</t>
+  </si>
+  <si>
+    <t>After searching many hotels in the area, we went with this hotel because we were given very good rates. Although we were visiting family in Missouri City, this hotel was the most accessible hotel nearby for us to travel to. Our experience was a good one. Rooms very clean, comfortable and spacious. The only negative thing with our room was it was at the end of hallway near stairway.... a little disturbance from this but...Will stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>julietrudeau, Manager at Comfort Suites Stafford, responded to this reviewResponded June 3, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 3, 2013</t>
+  </si>
+  <si>
+    <t>After searching many hotels in the area, we went with this hotel because we were given very good rates. Although we were visiting family in Missouri City, this hotel was the most accessible hotel nearby for us to travel to. Our experience was a good one. Rooms very clean, comfortable and spacious. The only negative thing with our room was it was at the end of hallway near stairway.... a little disturbance from this but...Will stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r153252103-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>153252103</t>
+  </si>
+  <si>
+    <t>02/26/2013</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>I searched for a location that was close to Houston Sugarland and Galveston and this was a great in between. I also searched for reviews of a Clean hotel and one that offered free breakfast internet and parking and this gave me all that. We arrived earlier than the check in time and we were unsure if we would be able to get right into our room after the long flight which they did for us.The room was very clean which is so important to me and the outside seating area was clean as well.Visit the Sugarland restaurants and shops you wont be dissapointed.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>I searched for a location that was close to Houston Sugarland and Galveston and this was a great in between. I also searched for reviews of a Clean hotel and one that offered free breakfast internet and parking and this gave me all that. We arrived earlier than the check in time and we were unsure if we would be able to get right into our room after the long flight which they did for us.The room was very clean which is so important to me and the outside seating area was clean as well.Visit the Sugarland restaurants and shops you wont be dissapointed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r146496773-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>146496773</t>
+  </si>
+  <si>
+    <t>11/30/2012</t>
+  </si>
+  <si>
+    <t>Love this Hotel!</t>
+  </si>
+  <si>
+    <t>I booked several rooms at this hotel the last 3 years and only have great things to say about this place!  The staff was very friendly and accommodative to our requests.  I like the new upgrades they have made to the lobby. It seemed like only a family hotel before but now it seems more luxurious with the new title floor and wood trimmed pillars. I can't wait to book my room again at this hotel and see the finished product! :)  If you already liked this hotel before you'll soon love it even more after the upgrades.  :)MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>I booked several rooms at this hotel the last 3 years and only have great things to say about this place!  The staff was very friendly and accommodative to our requests.  I like the new upgrades they have made to the lobby. It seemed like only a family hotel before but now it seems more luxurious with the new title floor and wood trimmed pillars. I can't wait to book my room again at this hotel and see the finished product! :)  If you already liked this hotel before you'll soon love it even more after the upgrades.  :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r146495090-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>146495090</t>
+  </si>
+  <si>
+    <t>GREAT HOTEL!</t>
+  </si>
+  <si>
+    <t>The staff was wonderful.  We had a youth retreat nearby and the hotel was extremely accommodating.  Their breakfast was also great (especially since we had so many vegetarians).The rooms were clean.Thanks a lot!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r146494164-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>146494164</t>
+  </si>
+  <si>
+    <t>awesome hotel!</t>
+  </si>
+  <si>
+    <t>Hotel staff was very accommodating.  The deal we got was great!  The lobby is being re-modeled so everything is going to look even better.  We were with a large group and the hotel exceeded our expectations and accommodated our needs.  Would highly recommend this hotel!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r140233026-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>140233026</t>
+  </si>
+  <si>
+    <t>09/14/2012</t>
+  </si>
+  <si>
+    <t>We had a beautiful stay</t>
+  </si>
+  <si>
+    <t>First thing.. I am Italian, so food is an important thing :)Me and my family stayed in this hotel for 2 weeks, the front door service was great! very nice rooms, and you can use the swimming pool whenever you want.We had a small coocking corner, but as my family is Italian (so we need big kitchen) they  let my mom using teh kitchen of the hotel for lunch and dinner.breakfast was great! The biggest one I ever had, thats probably because is in Texas :) I think that the location was very good about 15 mins away from the mall. Anyway I really enjoy the time I had there.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>julietrudeau, Manager at Comfort Suites Stafford, responded to this reviewResponded September 16, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 16, 2012</t>
+  </si>
+  <si>
+    <t>First thing.. I am Italian, so food is an important thing :)Me and my family stayed in this hotel for 2 weeks, the front door service was great! very nice rooms, and you can use the swimming pool whenever you want.We had a small coocking corner, but as my family is Italian (so we need big kitchen) they  let my mom using teh kitchen of the hotel for lunch and dinner.breakfast was great! The biggest one I ever had, thats probably because is in Texas :) I think that the location was very good about 15 mins away from the mall. Anyway I really enjoy the time I had there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r136417203-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>136417203</t>
+  </si>
+  <si>
+    <t>08/06/2012</t>
+  </si>
+  <si>
+    <t>Stayed at this location at least 14 times</t>
+  </si>
+  <si>
+    <t>I have stayed at this Comfort Suites about 14 times on business, and ever stay has been a good one, Great service and a good staff, when I return to the area I will stay here again.I know a lot of the employees now and the place is like home for me, great place to stay.  Barry HMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>julietrudeau, Manager at Comfort Suites Stafford, responded to this reviewResponded August 8, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2012</t>
+  </si>
+  <si>
+    <t>I have stayed at this Comfort Suites about 14 times on business, and ever stay has been a good one, Great service and a good staff, when I return to the area I will stay here again.I know a lot of the employees now and the place is like home for me, great place to stay.  Barry HMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r135456088-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>135456088</t>
+  </si>
+  <si>
+    <t>07/26/2012</t>
+  </si>
+  <si>
+    <t>I got overcharged days after I checked out</t>
+  </si>
+  <si>
+    <t>ok so i checked in Saturday and check out Sunday.  Monday  I checked my account and I was being charge again.  Tuesday they reverse the change then Thursday I get charge again and again.  Now they were saying that I had stayed there 2 days.  That's insane.   These people are crazy, insane and don't know how to run business.  They messed up my bank account and now Im having all kinds of headaches because of this.   PLEASE DON'T STAY HERE. SAVE YOUR SELF HEADACHES.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>julietrudeau, Director of Sales at Comfort Suites Stafford, responded to this reviewResponded August 6, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 6, 2012</t>
+  </si>
+  <si>
+    <t>ok so i checked in Saturday and check out Sunday.  Monday  I checked my account and I was being charge again.  Tuesday they reverse the change then Thursday I get charge again and again.  Now they were saying that I had stayed there 2 days.  That's insane.   These people are crazy, insane and don't know how to run business.  They messed up my bank account and now Im having all kinds of headaches because of this.   PLEASE DON'T STAY HERE. SAVE YOUR SELF HEADACHES.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r131296715-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>131296715</t>
+  </si>
+  <si>
+    <t>06/04/2012</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>We stayed here last week and it's a nice hotel.  Very clean, comfortable, and the continental breakfast was good.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>julietrudeau, Manager at Comfort Suites Stafford, responded to this reviewResponded August 3, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2012</t>
+  </si>
+  <si>
+    <t>We stayed here last week and it's a nice hotel.  Very clean, comfortable, and the continental breakfast was good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r130934446-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>130934446</t>
+  </si>
+  <si>
+    <t>05/30/2012</t>
+  </si>
+  <si>
+    <t>decent business hotel</t>
+  </si>
+  <si>
+    <t>This is a decent business hotel.large and comfortable rooms.nice breakfast spread.very far from Houston IAH and Houston Hobby Airports.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>This is a decent business hotel.large and comfortable rooms.nice breakfast spread.very far from Houston IAH and Houston Hobby Airports.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r128623678-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>128623678</t>
+  </si>
+  <si>
+    <t>04/25/2012</t>
+  </si>
+  <si>
+    <t>Nice appearance from outside, but rooms VERY outdated</t>
+  </si>
+  <si>
+    <t>I booked this hotel for a 5 day stay for work and made my stay short at this location - and would never stay location again.  Staff was extremely un-friendly, my counterpart and I was asked to leave the breakfast area as we were working in this area all morning as the Hotel needed the tables for a catered lunch they were having for a group they had in the so called meeting room.  Also when I checked in my travel agent made a mistake of booking me in a handicap room and the hotel clerk told me that she could not change the reservation as it was made from a third party and it was not their mistake even though the hotel had plenty of rooms available.  - Note this how this location treats a Choice Diamond MemberMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>julietrudeau, Manager at Comfort Suites Stafford, responded to this reviewResponded May 11, 2012</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2012</t>
+  </si>
+  <si>
+    <t>I booked this hotel for a 5 day stay for work and made my stay short at this location - and would never stay location again.  Staff was extremely un-friendly, my counterpart and I was asked to leave the breakfast area as we were working in this area all morning as the Hotel needed the tables for a catered lunch they were having for a group they had in the so called meeting room.  Also when I checked in my travel agent made a mistake of booking me in a handicap room and the hotel clerk told me that she could not change the reservation as it was made from a third party and it was not their mistake even though the hotel had plenty of rooms available.  - Note this how this location treats a Choice Diamond MemberMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r123918743-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>123918743</t>
+  </si>
+  <si>
+    <t>01/31/2012</t>
+  </si>
+  <si>
+    <t>Nice hotel on the Southwest Freeway near Sugar Land</t>
+  </si>
+  <si>
+    <t>I have stayed at Comfort Suites before, and I always find them to be a good, reliable motel chain.  The rooms are suites, and are comfortable.  The motel is new and well maintained.  The location of this Comfort Suites is in Stafford, close to the junction of US 59, the Southwest Freeway, and the Sam Houston Tollway, on the southwest side of Houston.  The neighborhood is fairly decent, and Sugar Land, with stores and restaurants is just minutes away.  I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>julietrudeau, Manager at Comfort Suites Stafford, responded to this reviewResponded April 2, 2012</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2012</t>
+  </si>
+  <si>
+    <t>I have stayed at Comfort Suites before, and I always find them to be a good, reliable motel chain.  The rooms are suites, and are comfortable.  The motel is new and well maintained.  The location of this Comfort Suites is in Stafford, close to the junction of US 59, the Southwest Freeway, and the Sam Houston Tollway, on the southwest side of Houston.  The neighborhood is fairly decent, and Sugar Land, with stores and restaurants is just minutes away.  I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r122230078-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>122230078</t>
+  </si>
+  <si>
+    <t>12/29/2011</t>
+  </si>
+  <si>
+    <t>Clean, great service, comfortable</t>
+  </si>
+  <si>
+    <t>Not a lot of hotels in this class meet the cleanliness and professional standards of Comfort Suites. I was really impressed. The free breakfast is great, the rooms are spotless, and everyone is kind and courteous. You just can't get a better deal for your money. The internet worked fine for me but I only used it to check e-mail. Overall, I highly recommend this place!</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r121888981-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>121888981</t>
+  </si>
+  <si>
+    <t>12/19/2011</t>
+  </si>
+  <si>
+    <t>Good value</t>
+  </si>
+  <si>
+    <t>Hottel  cleanbreakfast is fairWifi lacking speedGood smoking areaNot too bad</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r99602122-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>99602122</t>
+  </si>
+  <si>
+    <t>03/09/2011</t>
+  </si>
+  <si>
+    <t>Excellence</t>
+  </si>
+  <si>
+    <t>I was attending a Women Conference Fresh fire hosted by Triumph Church Sugar Land.I call for reservation spoke with May she was just awesome from beginning to end.They accomandated our group with a space for breakfast. That was not requested so that we could be together.Overall yes I would recommend this hotel and yes I would stay again in a Heart Beat...Thanks to Entire StaffFrances &amp; Catherine</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r95517203-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>95517203</t>
+  </si>
+  <si>
+    <t>02/04/2011</t>
+  </si>
+  <si>
+    <t>Clean, Great Value, VERY friendly staff</t>
+  </si>
+  <si>
+    <t>I stayed here for 3 nights in November and really enjoyed it. I don't usually post my experiences on tripadvisor, but this place made me want to. It's pretty much the definition of "family run". The staff truly seem to care about quality - from how breakfast is placed, to cleanliness in the rooms, to even how neatly the furniture is arranged. They have a new addition of rooms that apparently is nicer(granite countertops, larger rooms, etc), but even my room in the "old" area was very nice and comfortable. Rooms have microwave, coffee, and there's free breakfast(fresh waffles too) daily.  The staff were also very friendly in terms of helping you get to where you need to go, giving you advice on eats, and helping with any needs(I forgot some travel necessities). Bottom line, I have rarely come across a place like this in this day and age - family run, employees who have been there for years, and people who truly care. I was fortunate to meet the owners - who still make the effort to check all the rooms daily and care genuinely about their hotel. I HIGHLY recommend this place. There may be flashier hotels(I've stayed at all of them), but you won't get attention to detail and care...especially for the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>I stayed here for 3 nights in November and really enjoyed it. I don't usually post my experiences on tripadvisor, but this place made me want to. It's pretty much the definition of "family run". The staff truly seem to care about quality - from how breakfast is placed, to cleanliness in the rooms, to even how neatly the furniture is arranged. They have a new addition of rooms that apparently is nicer(granite countertops, larger rooms, etc), but even my room in the "old" area was very nice and comfortable. Rooms have microwave, coffee, and there's free breakfast(fresh waffles too) daily.  The staff were also very friendly in terms of helping you get to where you need to go, giving you advice on eats, and helping with any needs(I forgot some travel necessities). Bottom line, I have rarely come across a place like this in this day and age - family run, employees who have been there for years, and people who truly care. I was fortunate to meet the owners - who still make the effort to check all the rooms daily and care genuinely about their hotel. I HIGHLY recommend this place. There may be flashier hotels(I've stayed at all of them), but you won't get attention to detail and care...especially for the price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r83139583-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>83139583</t>
+  </si>
+  <si>
+    <t>10/12/2010</t>
+  </si>
+  <si>
+    <t>Ugly Room, Tiny TV</t>
+  </si>
+  <si>
+    <t>Picture a sofa so uncomfortable you cannot sit on it that has instead of an end table a small refrigerator with a microwave stacked on top of it and a brass lamp suck on top of both.  Add plastic flowers and a tiny old TV and there you have it. The TV remote only has up and down, no numbers so you have to cycle through to get the station you want. (Luckily?) there arent many channels to work through.  If sitting at the desk you cannot see the TV.  You do get what you pay for and the room is cheap, so it may be worth it if you are on a budget.  Shower was good with lots of hot water.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>Picture a sofa so uncomfortable you cannot sit on it that has instead of an end table a small refrigerator with a microwave stacked on top of it and a brass lamp suck on top of both.  Add plastic flowers and a tiny old TV and there you have it. The TV remote only has up and down, no numbers so you have to cycle through to get the station you want. (Luckily?) there arent many channels to work through.  If sitting at the desk you cannot see the TV.  You do get what you pay for and the room is cheap, so it may be worth it if you are on a budget.  Shower was good with lots of hot water.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r19964988-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>19964988</t>
+  </si>
+  <si>
+    <t>09/10/2008</t>
+  </si>
+  <si>
+    <t>new rooms, great service</t>
+  </si>
+  <si>
+    <t>excellent service from the very beginning reservation makingbreakfastroom serviceclose to other restaurantsnice front desk peopleonly con was no computer area</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r6313977-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>6313977</t>
+  </si>
+  <si>
+    <t>11/30/2006</t>
+  </si>
+  <si>
+    <t>So So</t>
+  </si>
+  <si>
+    <t>Stayed 4 nights, a very simple hotel  that needs some upgrades such as pillowtop Beds and new pillows that alot softer than what they have. ( like sleeping on Bricks)  Poor TV channel selection, I believe only 12 channels.  Poor breakfest compared to other comparitive priced hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2006</t>
+  </si>
+  <si>
+    <t>Stayed 4 nights, a very simple hotel  that needs some upgrades such as pillowtop Beds and new pillows that alot softer than what they have. ( like sleeping on Bricks)  Poor TV channel selection, I believe only 12 channels.  Poor breakfest compared to other comparitive priced hotels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d106339-r4971696-Comfort_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>4971696</t>
+  </si>
+  <si>
+    <t>04/11/2006</t>
+  </si>
+  <si>
+    <t>Best Comfort Suite in USA</t>
+  </si>
+  <si>
+    <t>I am a Choice preferred customer and have stayed in over 40 of their hotels across the country.This Comfort Suites Stafford / Sugarland is the best!They have great shopping and dining close by and only 15 minutes from Galleria area. The rooms are very large and in perfect conditionMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2006</t>
+  </si>
+  <si>
+    <t>I am a Choice preferred customer and have stayed in over 40 of their hotels across the country.This Comfort Suites Stafford / Sugarland is the best!They have great shopping and dining close by and only 15 minutes from Galleria area. The rooms are very large and in perfect conditionMore</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2753,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2785,6482 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>61</v>
+      </c>
+      <c r="X4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>61</v>
+      </c>
+      <c r="X5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>84</v>
+      </c>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>103</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" t="s">
+        <v>109</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" t="s">
+        <v>114</v>
+      </c>
+      <c r="L11" t="s">
+        <v>115</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>116</v>
+      </c>
+      <c r="O11" t="s">
+        <v>109</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>117</v>
+      </c>
+      <c r="X11" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>121</v>
+      </c>
+      <c r="J12" t="s">
+        <v>122</v>
+      </c>
+      <c r="K12" t="s">
+        <v>123</v>
+      </c>
+      <c r="L12" t="s">
+        <v>124</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>125</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>126</v>
+      </c>
+      <c r="X12" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" t="s">
+        <v>131</v>
+      </c>
+      <c r="K13" t="s">
+        <v>132</v>
+      </c>
+      <c r="L13" t="s">
+        <v>133</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>125</v>
+      </c>
+      <c r="O13" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>126</v>
+      </c>
+      <c r="X13" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>136</v>
+      </c>
+      <c r="J14" t="s">
+        <v>137</v>
+      </c>
+      <c r="K14" t="s">
+        <v>138</v>
+      </c>
+      <c r="L14" t="s">
+        <v>139</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>140</v>
+      </c>
+      <c r="O14" t="s">
+        <v>141</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" t="s">
+        <v>137</v>
+      </c>
+      <c r="K15" t="s">
+        <v>144</v>
+      </c>
+      <c r="L15" t="s">
+        <v>145</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>140</v>
+      </c>
+      <c r="O15" t="s">
+        <v>141</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>147</v>
+      </c>
+      <c r="J16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" t="s">
+        <v>149</v>
+      </c>
+      <c r="L16" t="s">
+        <v>150</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>140</v>
+      </c>
+      <c r="O16" t="s">
+        <v>109</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>152</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>153</v>
+      </c>
+      <c r="J17" t="s">
+        <v>154</v>
+      </c>
+      <c r="K17" t="s">
+        <v>155</v>
+      </c>
+      <c r="L17" t="s">
+        <v>156</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>157</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>158</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>159</v>
+      </c>
+      <c r="J18" t="s">
+        <v>160</v>
+      </c>
+      <c r="K18" t="s">
+        <v>161</v>
+      </c>
+      <c r="L18" t="s">
+        <v>162</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>157</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>163</v>
+      </c>
+      <c r="X18" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>167</v>
+      </c>
+      <c r="J19" t="s">
+        <v>160</v>
+      </c>
+      <c r="K19" t="s">
+        <v>168</v>
+      </c>
+      <c r="L19" t="s">
+        <v>169</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>157</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>163</v>
+      </c>
+      <c r="X19" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>172</v>
+      </c>
+      <c r="J20" t="s">
+        <v>173</v>
+      </c>
+      <c r="K20" t="s">
+        <v>174</v>
+      </c>
+      <c r="L20" t="s">
+        <v>175</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>176</v>
+      </c>
+      <c r="O20" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>177</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>178</v>
+      </c>
+      <c r="J21" t="s">
+        <v>179</v>
+      </c>
+      <c r="K21" t="s">
+        <v>180</v>
+      </c>
+      <c r="L21" t="s">
+        <v>181</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>182</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>183</v>
+      </c>
+      <c r="X21" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>186</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>187</v>
+      </c>
+      <c r="J22" t="s">
+        <v>188</v>
+      </c>
+      <c r="K22" t="s">
+        <v>189</v>
+      </c>
+      <c r="L22" t="s">
+        <v>190</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>191</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>192</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>193</v>
+      </c>
+      <c r="J23" t="s">
+        <v>194</v>
+      </c>
+      <c r="K23" t="s">
+        <v>195</v>
+      </c>
+      <c r="L23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>197</v>
+      </c>
+      <c r="O23" t="s">
+        <v>70</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>198</v>
+      </c>
+      <c r="X23" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>201</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>202</v>
+      </c>
+      <c r="J24" t="s">
+        <v>194</v>
+      </c>
+      <c r="K24" t="s">
+        <v>203</v>
+      </c>
+      <c r="L24" t="s">
+        <v>204</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>205</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>206</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>207</v>
+      </c>
+      <c r="J25" t="s">
+        <v>208</v>
+      </c>
+      <c r="K25" t="s">
+        <v>209</v>
+      </c>
+      <c r="L25" t="s">
+        <v>210</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>205</v>
+      </c>
+      <c r="O25" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>211</v>
+      </c>
+      <c r="X25" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>214</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>215</v>
+      </c>
+      <c r="J26" t="s">
+        <v>216</v>
+      </c>
+      <c r="K26" t="s">
+        <v>217</v>
+      </c>
+      <c r="L26" t="s">
+        <v>218</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>205</v>
+      </c>
+      <c r="O26" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>219</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>220</v>
+      </c>
+      <c r="J27" t="s">
+        <v>221</v>
+      </c>
+      <c r="K27" t="s">
+        <v>222</v>
+      </c>
+      <c r="L27" t="s">
+        <v>223</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>205</v>
+      </c>
+      <c r="O27" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>224</v>
+      </c>
+      <c r="X27" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>227</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>228</v>
+      </c>
+      <c r="J28" t="s">
+        <v>229</v>
+      </c>
+      <c r="K28" t="s">
+        <v>230</v>
+      </c>
+      <c r="L28" t="s">
+        <v>231</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>232</v>
+      </c>
+      <c r="O28" t="s">
+        <v>60</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>233</v>
+      </c>
+      <c r="X28" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>236</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>237</v>
+      </c>
+      <c r="J29" t="s">
+        <v>238</v>
+      </c>
+      <c r="K29" t="s">
+        <v>239</v>
+      </c>
+      <c r="L29" t="s">
+        <v>240</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>241</v>
+      </c>
+      <c r="O29" t="s">
+        <v>60</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>242</v>
+      </c>
+      <c r="X29" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>245</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>246</v>
+      </c>
+      <c r="J30" t="s">
+        <v>238</v>
+      </c>
+      <c r="K30" t="s">
+        <v>247</v>
+      </c>
+      <c r="L30" t="s">
+        <v>248</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>249</v>
+      </c>
+      <c r="O30" t="s">
+        <v>141</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>242</v>
+      </c>
+      <c r="X30" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>251</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>252</v>
+      </c>
+      <c r="J31" t="s">
+        <v>253</v>
+      </c>
+      <c r="K31" t="s">
+        <v>254</v>
+      </c>
+      <c r="L31" t="s">
+        <v>255</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>249</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>242</v>
+      </c>
+      <c r="X31" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>257</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>258</v>
+      </c>
+      <c r="J32" t="s">
+        <v>259</v>
+      </c>
+      <c r="K32" t="s">
+        <v>260</v>
+      </c>
+      <c r="L32" t="s">
+        <v>261</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>262</v>
+      </c>
+      <c r="O32" t="s">
+        <v>70</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>263</v>
+      </c>
+      <c r="X32" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>266</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>267</v>
+      </c>
+      <c r="J33" t="s">
+        <v>268</v>
+      </c>
+      <c r="K33" t="s">
+        <v>269</v>
+      </c>
+      <c r="L33" t="s">
+        <v>270</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>262</v>
+      </c>
+      <c r="O33" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>271</v>
+      </c>
+      <c r="X33" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>274</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>275</v>
+      </c>
+      <c r="J34" t="s">
+        <v>276</v>
+      </c>
+      <c r="K34" t="s">
+        <v>277</v>
+      </c>
+      <c r="L34" t="s">
+        <v>278</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>279</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>280</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>281</v>
+      </c>
+      <c r="J35" t="s">
+        <v>282</v>
+      </c>
+      <c r="K35" t="s">
+        <v>283</v>
+      </c>
+      <c r="L35" t="s">
+        <v>284</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>279</v>
+      </c>
+      <c r="O35" t="s">
+        <v>60</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>285</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>286</v>
+      </c>
+      <c r="J36" t="s">
+        <v>282</v>
+      </c>
+      <c r="K36" t="s">
+        <v>287</v>
+      </c>
+      <c r="L36" t="s">
+        <v>288</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>279</v>
+      </c>
+      <c r="O36" t="s">
+        <v>60</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>289</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>290</v>
+      </c>
+      <c r="J37" t="s">
+        <v>291</v>
+      </c>
+      <c r="K37" t="s">
+        <v>292</v>
+      </c>
+      <c r="L37" t="s">
+        <v>293</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>279</v>
+      </c>
+      <c r="O37" t="s">
+        <v>109</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>294</v>
+      </c>
+      <c r="X37" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>297</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>298</v>
+      </c>
+      <c r="J38" t="s">
+        <v>299</v>
+      </c>
+      <c r="K38" t="s">
+        <v>300</v>
+      </c>
+      <c r="L38" t="s">
+        <v>301</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>302</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>303</v>
+      </c>
+      <c r="X38" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>306</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>307</v>
+      </c>
+      <c r="J39" t="s">
+        <v>308</v>
+      </c>
+      <c r="K39" t="s">
+        <v>283</v>
+      </c>
+      <c r="L39" t="s">
+        <v>309</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>302</v>
+      </c>
+      <c r="O39" t="s">
+        <v>109</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>310</v>
+      </c>
+      <c r="X39" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>313</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>314</v>
+      </c>
+      <c r="J40" t="s">
+        <v>315</v>
+      </c>
+      <c r="K40" t="s">
+        <v>316</v>
+      </c>
+      <c r="L40" t="s">
+        <v>317</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>302</v>
+      </c>
+      <c r="O40" t="s">
+        <v>60</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>318</v>
+      </c>
+      <c r="X40" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>321</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>322</v>
+      </c>
+      <c r="J41" t="s">
+        <v>323</v>
+      </c>
+      <c r="K41" t="s">
+        <v>324</v>
+      </c>
+      <c r="L41" t="s">
+        <v>325</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>326</v>
+      </c>
+      <c r="O41" t="s">
+        <v>60</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>327</v>
+      </c>
+      <c r="X41" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>330</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>331</v>
+      </c>
+      <c r="J42" t="s">
+        <v>332</v>
+      </c>
+      <c r="K42" t="s">
+        <v>333</v>
+      </c>
+      <c r="L42" t="s">
+        <v>334</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>326</v>
+      </c>
+      <c r="O42" t="s">
+        <v>60</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>335</v>
+      </c>
+      <c r="X42" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>338</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>339</v>
+      </c>
+      <c r="J43" t="s">
+        <v>340</v>
+      </c>
+      <c r="K43" t="s">
+        <v>341</v>
+      </c>
+      <c r="L43" t="s">
+        <v>342</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>343</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>344</v>
+      </c>
+      <c r="X43" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>347</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>348</v>
+      </c>
+      <c r="J44" t="s">
+        <v>349</v>
+      </c>
+      <c r="K44" t="s">
+        <v>350</v>
+      </c>
+      <c r="L44" t="s">
+        <v>351</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>343</v>
+      </c>
+      <c r="O44" t="s">
+        <v>60</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>352</v>
+      </c>
+      <c r="X44" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>355</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>356</v>
+      </c>
+      <c r="J45" t="s">
+        <v>357</v>
+      </c>
+      <c r="K45" t="s">
+        <v>358</v>
+      </c>
+      <c r="L45" t="s">
+        <v>359</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>343</v>
+      </c>
+      <c r="O45" t="s">
+        <v>70</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>352</v>
+      </c>
+      <c r="X45" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>361</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>362</v>
+      </c>
+      <c r="J46" t="s">
+        <v>357</v>
+      </c>
+      <c r="K46" t="s">
+        <v>363</v>
+      </c>
+      <c r="L46" t="s">
+        <v>364</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>343</v>
+      </c>
+      <c r="O46" t="s">
+        <v>109</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>365</v>
+      </c>
+      <c r="X46" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>368</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>369</v>
+      </c>
+      <c r="J47" t="s">
+        <v>370</v>
+      </c>
+      <c r="K47" t="s">
+        <v>371</v>
+      </c>
+      <c r="L47" t="s">
+        <v>372</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s">
+        <v>343</v>
+      </c>
+      <c r="O47" t="s">
+        <v>60</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>373</v>
+      </c>
+      <c r="X47" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>376</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>377</v>
+      </c>
+      <c r="J48" t="s">
+        <v>378</v>
+      </c>
+      <c r="K48" t="s">
+        <v>379</v>
+      </c>
+      <c r="L48" t="s">
+        <v>380</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>343</v>
+      </c>
+      <c r="O48" t="s">
+        <v>70</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>381</v>
+      </c>
+      <c r="X48" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>384</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>385</v>
+      </c>
+      <c r="J49" t="s">
+        <v>386</v>
+      </c>
+      <c r="K49" t="s">
+        <v>387</v>
+      </c>
+      <c r="L49" t="s">
+        <v>388</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>389</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>390</v>
+      </c>
+      <c r="X49" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>393</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>394</v>
+      </c>
+      <c r="J50" t="s">
+        <v>395</v>
+      </c>
+      <c r="K50" t="s">
+        <v>396</v>
+      </c>
+      <c r="L50" t="s">
+        <v>397</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>389</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>398</v>
+      </c>
+      <c r="X50" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>401</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>402</v>
+      </c>
+      <c r="J51" t="s">
+        <v>395</v>
+      </c>
+      <c r="K51" t="s">
+        <v>403</v>
+      </c>
+      <c r="L51" t="s">
+        <v>404</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>389</v>
+      </c>
+      <c r="O51" t="s">
+        <v>141</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>398</v>
+      </c>
+      <c r="X51" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>406</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>407</v>
+      </c>
+      <c r="J52" t="s">
+        <v>408</v>
+      </c>
+      <c r="K52" t="s">
+        <v>409</v>
+      </c>
+      <c r="L52" t="s">
+        <v>410</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>389</v>
+      </c>
+      <c r="O52" t="s">
+        <v>60</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>411</v>
+      </c>
+      <c r="X52" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>414</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>415</v>
+      </c>
+      <c r="J53" t="s">
+        <v>416</v>
+      </c>
+      <c r="K53" t="s">
+        <v>417</v>
+      </c>
+      <c r="L53" t="s">
+        <v>418</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>419</v>
+      </c>
+      <c r="O53" t="s">
+        <v>109</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>420</v>
+      </c>
+      <c r="X53" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>423</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>424</v>
+      </c>
+      <c r="J54" t="s">
+        <v>425</v>
+      </c>
+      <c r="K54" t="s">
+        <v>426</v>
+      </c>
+      <c r="L54" t="s">
+        <v>427</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>419</v>
+      </c>
+      <c r="O54" t="s">
+        <v>109</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>428</v>
+      </c>
+      <c r="X54" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>431</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>432</v>
+      </c>
+      <c r="J55" t="s">
+        <v>433</v>
+      </c>
+      <c r="K55" t="s">
+        <v>434</v>
+      </c>
+      <c r="L55" t="s">
+        <v>435</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>419</v>
+      </c>
+      <c r="O55" t="s">
+        <v>60</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>436</v>
+      </c>
+      <c r="X55" t="s">
+        <v>437</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>439</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>440</v>
+      </c>
+      <c r="J56" t="s">
+        <v>441</v>
+      </c>
+      <c r="K56" t="s">
+        <v>442</v>
+      </c>
+      <c r="L56" t="s">
+        <v>443</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>444</v>
+      </c>
+      <c r="O56" t="s">
+        <v>70</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>445</v>
+      </c>
+      <c r="X56" t="s">
+        <v>446</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>448</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>449</v>
+      </c>
+      <c r="J57" t="s">
+        <v>450</v>
+      </c>
+      <c r="K57" t="s">
+        <v>451</v>
+      </c>
+      <c r="L57" t="s">
+        <v>452</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>444</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>453</v>
+      </c>
+      <c r="X57" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>456</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>457</v>
+      </c>
+      <c r="J58" t="s">
+        <v>450</v>
+      </c>
+      <c r="K58" t="s">
+        <v>458</v>
+      </c>
+      <c r="L58" t="s">
+        <v>459</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>444</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>453</v>
+      </c>
+      <c r="X58" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>461</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>462</v>
+      </c>
+      <c r="J59" t="s">
+        <v>463</v>
+      </c>
+      <c r="K59" t="s">
+        <v>464</v>
+      </c>
+      <c r="L59" t="s">
+        <v>465</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>444</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>466</v>
+      </c>
+      <c r="X59" t="s">
+        <v>467</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>469</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>470</v>
+      </c>
+      <c r="J60" t="s">
+        <v>471</v>
+      </c>
+      <c r="K60" t="s">
+        <v>472</v>
+      </c>
+      <c r="L60" t="s">
+        <v>473</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>444</v>
+      </c>
+      <c r="O60" t="s">
+        <v>60</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>474</v>
+      </c>
+      <c r="X60" t="s">
+        <v>475</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>477</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>478</v>
+      </c>
+      <c r="J61" t="s">
+        <v>479</v>
+      </c>
+      <c r="K61" t="s">
+        <v>480</v>
+      </c>
+      <c r="L61" t="s">
+        <v>481</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>444</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>474</v>
+      </c>
+      <c r="X61" t="s">
+        <v>475</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>483</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>484</v>
+      </c>
+      <c r="J62" t="s">
+        <v>485</v>
+      </c>
+      <c r="K62" t="s">
+        <v>486</v>
+      </c>
+      <c r="L62" t="s">
+        <v>487</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>444</v>
+      </c>
+      <c r="O62" t="s">
+        <v>60</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>488</v>
+      </c>
+      <c r="X62" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>491</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>492</v>
+      </c>
+      <c r="J63" t="s">
+        <v>493</v>
+      </c>
+      <c r="K63" t="s">
+        <v>494</v>
+      </c>
+      <c r="L63" t="s">
+        <v>495</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>496</v>
+      </c>
+      <c r="O63" t="s">
+        <v>60</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>497</v>
+      </c>
+      <c r="X63" t="s">
+        <v>498</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>500</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>501</v>
+      </c>
+      <c r="J64" t="s">
+        <v>502</v>
+      </c>
+      <c r="K64" t="s">
+        <v>503</v>
+      </c>
+      <c r="L64" t="s">
+        <v>504</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>496</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>505</v>
+      </c>
+      <c r="X64" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>508</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>509</v>
+      </c>
+      <c r="J65" t="s">
+        <v>510</v>
+      </c>
+      <c r="K65" t="s">
+        <v>511</v>
+      </c>
+      <c r="L65" t="s">
+        <v>512</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>513</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>514</v>
+      </c>
+      <c r="X65" t="s">
+        <v>515</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>517</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>518</v>
+      </c>
+      <c r="J66" t="s">
+        <v>510</v>
+      </c>
+      <c r="K66" t="s">
+        <v>519</v>
+      </c>
+      <c r="L66" t="s">
+        <v>520</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>521</v>
+      </c>
+      <c r="O66" t="s">
+        <v>60</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>514</v>
+      </c>
+      <c r="X66" t="s">
+        <v>515</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>523</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>524</v>
+      </c>
+      <c r="J67" t="s">
+        <v>510</v>
+      </c>
+      <c r="K67" t="s">
+        <v>525</v>
+      </c>
+      <c r="L67" t="s">
+        <v>526</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>527</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>514</v>
+      </c>
+      <c r="X67" t="s">
+        <v>515</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>529</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>530</v>
+      </c>
+      <c r="J68" t="s">
+        <v>531</v>
+      </c>
+      <c r="K68" t="s">
+        <v>532</v>
+      </c>
+      <c r="L68" t="s">
+        <v>533</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>521</v>
+      </c>
+      <c r="O68" t="s">
+        <v>60</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>534</v>
+      </c>
+      <c r="X68" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>537</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>538</v>
+      </c>
+      <c r="J69" t="s">
+        <v>539</v>
+      </c>
+      <c r="K69" t="s">
+        <v>540</v>
+      </c>
+      <c r="L69" t="s">
+        <v>541</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>521</v>
+      </c>
+      <c r="O69" t="s">
+        <v>60</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>542</v>
+      </c>
+      <c r="X69" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>545</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>546</v>
+      </c>
+      <c r="J70" t="s">
+        <v>547</v>
+      </c>
+      <c r="K70" t="s">
+        <v>548</v>
+      </c>
+      <c r="L70" t="s">
+        <v>549</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s"/>
+      <c r="O70" t="s"/>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>550</v>
+      </c>
+      <c r="X70" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>553</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>554</v>
+      </c>
+      <c r="J71" t="s">
+        <v>555</v>
+      </c>
+      <c r="K71" t="s">
+        <v>556</v>
+      </c>
+      <c r="L71" t="s">
+        <v>557</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>521</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>558</v>
+      </c>
+      <c r="X71" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>561</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>562</v>
+      </c>
+      <c r="J72" t="s">
+        <v>563</v>
+      </c>
+      <c r="K72" t="s">
+        <v>564</v>
+      </c>
+      <c r="L72" t="s">
+        <v>565</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" t="s">
+        <v>566</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="s"/>
+      <c r="S72" t="n">
+        <v>3</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>3</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>550</v>
+      </c>
+      <c r="X72" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>568</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>569</v>
+      </c>
+      <c r="J73" t="s">
+        <v>570</v>
+      </c>
+      <c r="K73" t="s">
+        <v>571</v>
+      </c>
+      <c r="L73" t="s">
+        <v>572</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>573</v>
+      </c>
+      <c r="X73" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>576</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>577</v>
+      </c>
+      <c r="J74" t="s">
+        <v>578</v>
+      </c>
+      <c r="K74" t="s">
+        <v>579</v>
+      </c>
+      <c r="L74" t="s">
+        <v>580</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>581</v>
+      </c>
+      <c r="O74" t="s">
+        <v>60</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="s"/>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>582</v>
+      </c>
+      <c r="X74" t="s">
+        <v>583</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>585</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>586</v>
+      </c>
+      <c r="J75" t="s">
+        <v>587</v>
+      </c>
+      <c r="K75" t="s">
+        <v>588</v>
+      </c>
+      <c r="L75" t="s">
+        <v>589</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>590</v>
+      </c>
+      <c r="O75" t="s">
+        <v>60</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>582</v>
+      </c>
+      <c r="X75" t="s">
+        <v>583</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>592</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>593</v>
+      </c>
+      <c r="J76" t="s">
+        <v>594</v>
+      </c>
+      <c r="K76" t="s">
+        <v>595</v>
+      </c>
+      <c r="L76" t="s">
+        <v>596</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>590</v>
+      </c>
+      <c r="O76" t="s">
+        <v>109</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>582</v>
+      </c>
+      <c r="X76" t="s">
+        <v>583</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>598</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>599</v>
+      </c>
+      <c r="J77" t="s">
+        <v>600</v>
+      </c>
+      <c r="K77" t="s">
+        <v>601</v>
+      </c>
+      <c r="L77" t="s">
+        <v>602</v>
+      </c>
+      <c r="M77" t="n">
+        <v>2</v>
+      </c>
+      <c r="N77" t="s">
+        <v>603</v>
+      </c>
+      <c r="O77" t="s">
+        <v>60</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="s"/>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>604</v>
+      </c>
+      <c r="X77" t="s">
+        <v>605</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>607</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>608</v>
+      </c>
+      <c r="J78" t="s">
+        <v>609</v>
+      </c>
+      <c r="K78" t="s">
+        <v>610</v>
+      </c>
+      <c r="L78" t="s">
+        <v>611</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s">
+        <v>612</v>
+      </c>
+      <c r="O78" t="s">
+        <v>141</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>2</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>3</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>613</v>
+      </c>
+      <c r="X78" t="s">
+        <v>614</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>616</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>617</v>
+      </c>
+      <c r="J79" t="s">
+        <v>618</v>
+      </c>
+      <c r="K79" t="s">
+        <v>619</v>
+      </c>
+      <c r="L79" t="s">
+        <v>620</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>621</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>3</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>613</v>
+      </c>
+      <c r="X79" t="s">
+        <v>614</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>623</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>624</v>
+      </c>
+      <c r="J80" t="s">
+        <v>625</v>
+      </c>
+      <c r="K80" t="s">
+        <v>626</v>
+      </c>
+      <c r="L80" t="s">
+        <v>627</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s"/>
+      <c r="O80" t="s"/>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>628</v>
+      </c>
+      <c r="X80" t="s">
+        <v>629</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>631</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>632</v>
+      </c>
+      <c r="J81" t="s">
+        <v>633</v>
+      </c>
+      <c r="K81" t="s">
+        <v>634</v>
+      </c>
+      <c r="L81" t="s">
+        <v>635</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>636</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>637</v>
+      </c>
+      <c r="X81" t="s">
+        <v>638</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>640</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>641</v>
+      </c>
+      <c r="J82" t="s">
+        <v>642</v>
+      </c>
+      <c r="K82" t="s">
+        <v>643</v>
+      </c>
+      <c r="L82" t="s">
+        <v>644</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>645</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>613</v>
+      </c>
+      <c r="X82" t="s">
+        <v>614</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>647</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>648</v>
+      </c>
+      <c r="J83" t="s">
+        <v>649</v>
+      </c>
+      <c r="K83" t="s">
+        <v>650</v>
+      </c>
+      <c r="L83" t="s">
+        <v>651</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>652</v>
+      </c>
+      <c r="O83" t="s">
+        <v>141</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>613</v>
+      </c>
+      <c r="X83" t="s">
+        <v>614</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>654</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>655</v>
+      </c>
+      <c r="J84" t="s">
+        <v>649</v>
+      </c>
+      <c r="K84" t="s">
+        <v>656</v>
+      </c>
+      <c r="L84" t="s">
+        <v>657</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>652</v>
+      </c>
+      <c r="O84" t="s">
+        <v>60</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>658</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>659</v>
+      </c>
+      <c r="J85" t="s">
+        <v>649</v>
+      </c>
+      <c r="K85" t="s">
+        <v>660</v>
+      </c>
+      <c r="L85" t="s">
+        <v>661</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>652</v>
+      </c>
+      <c r="O85" t="s">
+        <v>141</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>662</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>663</v>
+      </c>
+      <c r="J86" t="s">
+        <v>664</v>
+      </c>
+      <c r="K86" t="s">
+        <v>665</v>
+      </c>
+      <c r="L86" t="s">
+        <v>666</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>667</v>
+      </c>
+      <c r="O86" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>668</v>
+      </c>
+      <c r="X86" t="s">
+        <v>669</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>671</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>672</v>
+      </c>
+      <c r="J87" t="s">
+        <v>673</v>
+      </c>
+      <c r="K87" t="s">
+        <v>674</v>
+      </c>
+      <c r="L87" t="s">
+        <v>675</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>676</v>
+      </c>
+      <c r="O87" t="s">
+        <v>60</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>677</v>
+      </c>
+      <c r="X87" t="s">
+        <v>678</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>680</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>681</v>
+      </c>
+      <c r="J88" t="s">
+        <v>682</v>
+      </c>
+      <c r="K88" t="s">
+        <v>683</v>
+      </c>
+      <c r="L88" t="s">
+        <v>684</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="s">
+        <v>685</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3</v>
+      </c>
+      <c r="S88" t="n">
+        <v>3</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>3</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>686</v>
+      </c>
+      <c r="X88" t="s">
+        <v>687</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>689</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>690</v>
+      </c>
+      <c r="J89" t="s">
+        <v>691</v>
+      </c>
+      <c r="K89" t="s">
+        <v>692</v>
+      </c>
+      <c r="L89" t="s">
+        <v>693</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>694</v>
+      </c>
+      <c r="O89" t="s">
+        <v>109</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>695</v>
+      </c>
+      <c r="X89" t="s">
+        <v>696</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>698</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>699</v>
+      </c>
+      <c r="J90" t="s">
+        <v>700</v>
+      </c>
+      <c r="K90" t="s">
+        <v>701</v>
+      </c>
+      <c r="L90" t="s">
+        <v>702</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>703</v>
+      </c>
+      <c r="O90" t="s">
+        <v>60</v>
+      </c>
+      <c r="P90" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>3</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>4</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>695</v>
+      </c>
+      <c r="X90" t="s">
+        <v>696</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>705</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>706</v>
+      </c>
+      <c r="J91" t="s">
+        <v>707</v>
+      </c>
+      <c r="K91" t="s">
+        <v>708</v>
+      </c>
+      <c r="L91" t="s">
+        <v>709</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="s">
+        <v>710</v>
+      </c>
+      <c r="O91" t="s">
+        <v>60</v>
+      </c>
+      <c r="P91" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>1</v>
+      </c>
+      <c r="R91" t="n">
+        <v>3</v>
+      </c>
+      <c r="S91" t="n">
+        <v>1</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>1</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>711</v>
+      </c>
+      <c r="X91" t="s">
+        <v>712</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>714</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>715</v>
+      </c>
+      <c r="J92" t="s">
+        <v>716</v>
+      </c>
+      <c r="K92" t="s">
+        <v>717</v>
+      </c>
+      <c r="L92" t="s">
+        <v>718</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>676</v>
+      </c>
+      <c r="O92" t="s">
+        <v>70</v>
+      </c>
+      <c r="P92" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>4</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>4</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>4</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>719</v>
+      </c>
+      <c r="X92" t="s">
+        <v>720</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>722</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>723</v>
+      </c>
+      <c r="J93" t="s">
+        <v>724</v>
+      </c>
+      <c r="K93" t="s">
+        <v>725</v>
+      </c>
+      <c r="L93" t="s">
+        <v>726</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>727</v>
+      </c>
+      <c r="O93" t="s">
+        <v>60</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>728</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>729</v>
+      </c>
+      <c r="J94" t="s">
+        <v>730</v>
+      </c>
+      <c r="K94" t="s">
+        <v>731</v>
+      </c>
+      <c r="L94" t="s">
+        <v>732</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s"/>
+      <c r="O94" t="s"/>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>4</v>
+      </c>
+      <c r="R94" t="n">
+        <v>3</v>
+      </c>
+      <c r="S94" t="n">
+        <v>4</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>4</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>733</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>734</v>
+      </c>
+      <c r="J95" t="s">
+        <v>735</v>
+      </c>
+      <c r="K95" t="s">
+        <v>736</v>
+      </c>
+      <c r="L95" t="s">
+        <v>737</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>738</v>
+      </c>
+      <c r="O95" t="s">
+        <v>60</v>
+      </c>
+      <c r="P95" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>739</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>740</v>
+      </c>
+      <c r="J96" t="s">
+        <v>741</v>
+      </c>
+      <c r="K96" t="s">
+        <v>742</v>
+      </c>
+      <c r="L96" t="s">
+        <v>743</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>744</v>
+      </c>
+      <c r="O96" t="s">
+        <v>60</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>746</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>747</v>
+      </c>
+      <c r="J97" t="s">
+        <v>748</v>
+      </c>
+      <c r="K97" t="s">
+        <v>749</v>
+      </c>
+      <c r="L97" t="s">
+        <v>750</v>
+      </c>
+      <c r="M97" t="n">
+        <v>3</v>
+      </c>
+      <c r="N97" t="s">
+        <v>751</v>
+      </c>
+      <c r="O97" t="s">
+        <v>60</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>2</v>
+      </c>
+      <c r="R97" t="n">
+        <v>4</v>
+      </c>
+      <c r="S97" t="n">
+        <v>4</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>4</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>753</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>754</v>
+      </c>
+      <c r="J98" t="s">
+        <v>755</v>
+      </c>
+      <c r="K98" t="s">
+        <v>756</v>
+      </c>
+      <c r="L98" t="s">
+        <v>757</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s"/>
+      <c r="O98" t="s"/>
+      <c r="P98" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>4</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>758</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>759</v>
+      </c>
+      <c r="J99" t="s">
+        <v>760</v>
+      </c>
+      <c r="K99" t="s">
+        <v>761</v>
+      </c>
+      <c r="L99" t="s">
+        <v>762</v>
+      </c>
+      <c r="M99" t="n">
+        <v>2</v>
+      </c>
+      <c r="N99" t="s">
+        <v>763</v>
+      </c>
+      <c r="O99" t="s">
+        <v>60</v>
+      </c>
+      <c r="P99" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>2</v>
+      </c>
+      <c r="R99" t="n">
+        <v>1</v>
+      </c>
+      <c r="S99" t="n">
+        <v>3</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>3</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>613</v>
+      </c>
+      <c r="X99" t="s">
+        <v>614</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>32646</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>765</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>766</v>
+      </c>
+      <c r="J100" t="s">
+        <v>767</v>
+      </c>
+      <c r="K100" t="s">
+        <v>768</v>
+      </c>
+      <c r="L100" t="s">
+        <v>769</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>770</v>
+      </c>
+      <c r="O100" t="s">
+        <v>60</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="s"/>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>613</v>
+      </c>
+      <c r="X100" t="s">
+        <v>614</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>771</v>
       </c>
     </row>
   </sheetData>
